--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.850819459153001</v>
+        <v>1.850819459152945</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06410955001276619</v>
+        <v>0.06410955001253171</v>
       </c>
       <c r="E2">
         <v>1.476572705002098</v>
       </c>
       <c r="F2">
-        <v>3.309963766664907</v>
+        <v>3.309963766664964</v>
       </c>
       <c r="G2">
-        <v>2.732162707832018</v>
+        <v>2.732162707832032</v>
       </c>
       <c r="H2">
         <v>0.5264398438062159</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.944244890689035</v>
+        <v>1.944244890689049</v>
       </c>
       <c r="L2">
-        <v>2.377396811849678</v>
+        <v>2.377396811849664</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.604754862135053</v>
+        <v>1.604754862135309</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05267634979452396</v>
+        <v>0.05267634979441027</v>
       </c>
       <c r="E3">
-        <v>1.289851679393038</v>
+        <v>1.289851679392996</v>
       </c>
       <c r="F3">
-        <v>2.807062820980065</v>
+        <v>2.80706282098015</v>
       </c>
       <c r="G3">
-        <v>2.314051101421271</v>
+        <v>2.314051101421256</v>
       </c>
       <c r="H3">
-        <v>0.4913816464724974</v>
+        <v>0.4913816464724761</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.6724350699171</v>
+        <v>1.672435069917114</v>
       </c>
       <c r="L3">
         <v>2.051370677569608</v>
@@ -494,19 +494,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04624955434486111</v>
+        <v>0.04624955434475453</v>
       </c>
       <c r="E4">
         <v>1.176314051821961</v>
       </c>
       <c r="F4">
-        <v>2.513607638089098</v>
+        <v>2.513607638089127</v>
       </c>
       <c r="G4">
-        <v>2.070512605444847</v>
+        <v>2.070512605444819</v>
       </c>
       <c r="H4">
-        <v>0.4720653818093865</v>
+        <v>0.4720653818094149</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>1.508775453694255</v>
       </c>
       <c r="L4">
-        <v>1.85413542708946</v>
+        <v>1.854135427089474</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.393852116801042</v>
+        <v>1.393852116800787</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04375569227453013</v>
+        <v>0.04375569227463671</v>
       </c>
       <c r="E5">
         <v>1.130257561346014</v>
       </c>
       <c r="F5">
-        <v>2.397261703468416</v>
+        <v>2.39726170346843</v>
       </c>
       <c r="G5">
         <v>1.974054992715622</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.442741787849613</v>
+        <v>1.44274178784957</v>
       </c>
       <c r="L5">
-        <v>1.7743563684039</v>
+        <v>1.774356368403915</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04334851005295093</v>
+        <v>0.04334851005295803</v>
       </c>
       <c r="E6">
         <v>1.122620883866801</v>
@@ -582,7 +582,7 @@
         <v>1.958192552261551</v>
       </c>
       <c r="H6">
-        <v>0.4635035912675463</v>
+        <v>0.4635035912675534</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.45394028344802</v>
+        <v>1.453940283447736</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04621544382231946</v>
+        <v>0.04621544382243314</v>
       </c>
       <c r="E7">
-        <v>1.175692145226975</v>
+        <v>1.175692145226947</v>
       </c>
       <c r="F7">
-        <v>2.512026187519268</v>
+        <v>2.512026187519297</v>
       </c>
       <c r="G7">
-        <v>2.069201105637902</v>
+        <v>2.069201105637859</v>
       </c>
       <c r="H7">
-        <v>0.4719640444312745</v>
+        <v>0.4719640444312603</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.507882420021303</v>
+        <v>1.507882420021318</v>
       </c>
       <c r="L7">
-        <v>1.853057263007358</v>
+        <v>1.853057263007315</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.76570982856245</v>
+        <v>1.765709828562393</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06002852577988449</v>
+        <v>0.06002852577967133</v>
       </c>
       <c r="E8">
-        <v>1.411916090783691</v>
+        <v>1.411916090783663</v>
       </c>
       <c r="F8">
-        <v>3.132981762211472</v>
+        <v>3.132981762211443</v>
       </c>
       <c r="G8">
-        <v>2.584917091491718</v>
+        <v>2.584917091491704</v>
       </c>
       <c r="H8">
-        <v>0.5138601873818232</v>
+        <v>0.5138601873818303</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.84975382065133</v>
+        <v>1.849753820651301</v>
       </c>
       <c r="L8">
-        <v>2.264277517154667</v>
+        <v>2.264277517154696</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09315872748111076</v>
+        <v>0.09315872748086207</v>
       </c>
       <c r="E9">
-        <v>1.887821054407965</v>
+        <v>1.887821054407979</v>
       </c>
       <c r="F9">
         <v>4.506084340848048</v>
@@ -708,7 +708,7 @@
         <v>2.55423861646635</v>
       </c>
       <c r="L9">
-        <v>3.101942408696189</v>
+        <v>3.101942408696246</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.859872946790915</v>
+        <v>2.859872946791029</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0.1235951027135442</v>
       </c>
       <c r="E10">
-        <v>2.252324039262703</v>
+        <v>2.25232403926276</v>
       </c>
       <c r="F10">
-        <v>5.669842096748056</v>
+        <v>5.669842096747999</v>
       </c>
       <c r="G10">
-        <v>4.7044897088428</v>
+        <v>4.704489708842829</v>
       </c>
       <c r="H10">
-        <v>0.7082922127438209</v>
+        <v>0.7082922127437925</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.107485757794421</v>
+        <v>3.107485757794407</v>
       </c>
       <c r="L10">
-        <v>3.750257984421268</v>
+        <v>3.750257984421239</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.078465703049915</v>
+        <v>3.078465703050142</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1395382145144168</v>
+        <v>0.1395382145142037</v>
       </c>
       <c r="E11">
-        <v>2.423705942707514</v>
+        <v>2.4237059427075</v>
       </c>
       <c r="F11">
-        <v>6.251851518252977</v>
+        <v>6.251851518253005</v>
       </c>
       <c r="G11">
         <v>5.193133011772488</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.371532105779309</v>
+        <v>3.371532105779266</v>
       </c>
       <c r="L11">
-        <v>4.056568985571175</v>
+        <v>4.056568985571204</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.162049832253047</v>
+        <v>3.162049832252933</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1459691750522722</v>
+        <v>0.1459691750527128</v>
       </c>
       <c r="E12">
-        <v>2.489686303055365</v>
+        <v>2.489686303055322</v>
       </c>
       <c r="F12">
-        <v>6.482028570136663</v>
+        <v>6.482028570136549</v>
       </c>
       <c r="G12">
-        <v>5.386600479881622</v>
+        <v>5.386600479881594</v>
       </c>
       <c r="H12">
-        <v>0.773671543535734</v>
+        <v>0.7736715435357056</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.473831573087978</v>
+        <v>3.473831573087949</v>
       </c>
       <c r="L12">
-        <v>4.174682492819471</v>
+        <v>4.174682492819542</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.144009325695549</v>
+        <v>3.144009325695663</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1445648365860137</v>
+        <v>0.1445648365862269</v>
       </c>
       <c r="E13">
-        <v>2.475422565640955</v>
+        <v>2.475422565640983</v>
       </c>
       <c r="F13">
-        <v>6.431977538097414</v>
+        <v>6.431977538097442</v>
       </c>
       <c r="G13">
-        <v>5.344521618896749</v>
+        <v>5.344521618896778</v>
       </c>
       <c r="H13">
-        <v>0.7696315248958854</v>
+        <v>0.7696315248958996</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.451686492508571</v>
+        <v>3.451686492508514</v>
       </c>
       <c r="L13">
-        <v>4.149141058046808</v>
+        <v>4.149141058046794</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.08532487917256</v>
+        <v>3.085324879172106</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1400587647230083</v>
+        <v>0.1400587647231788</v>
       </c>
       <c r="E14">
-        <v>2.429110536875186</v>
+        <v>2.429110536875157</v>
       </c>
       <c r="F14">
-        <v>6.270576976921461</v>
+        <v>6.270576976921376</v>
       </c>
       <c r="G14">
-        <v>5.208867569872098</v>
+        <v>5.208867569872012</v>
       </c>
       <c r="H14">
-        <v>0.7566096357074912</v>
+        <v>0.7566096357074841</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0.137353190099482</v>
       </c>
       <c r="E15">
-        <v>2.400893992175909</v>
+        <v>2.400893992175867</v>
       </c>
       <c r="F15">
-        <v>6.173066444920039</v>
+        <v>6.173066444920011</v>
       </c>
       <c r="G15">
-        <v>5.126940565573449</v>
+        <v>5.12694056557342</v>
       </c>
       <c r="H15">
-        <v>0.7487482901083524</v>
+        <v>0.7487482901083666</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.33624563203648</v>
+        <v>3.336245632036466</v>
       </c>
       <c r="L15">
-        <v>4.015754373804654</v>
+        <v>4.015754373804626</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.845690049491395</v>
+        <v>2.845690049491679</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1226025912008026</v>
+        <v>0.1226025912004403</v>
       </c>
       <c r="E16">
-        <v>2.241257768736503</v>
+        <v>2.241257768736489</v>
       </c>
       <c r="F16">
         <v>5.633039263493885</v>
@@ -974,7 +974,7 @@
         <v>3.090520574520966</v>
       </c>
       <c r="L16">
-        <v>3.730507132519833</v>
+        <v>3.730507132519818</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.721906129851902</v>
+        <v>2.721906129851845</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1141474643262299</v>
+        <v>0.1141474643262939</v>
       </c>
       <c r="E17">
-        <v>2.144924035527822</v>
+        <v>2.144924035527765</v>
       </c>
       <c r="F17">
-        <v>5.31659912748637</v>
+        <v>5.316599127486398</v>
       </c>
       <c r="G17">
-        <v>4.40830846036107</v>
+        <v>4.408308460361098</v>
       </c>
       <c r="H17">
-        <v>0.6800685560747866</v>
+        <v>0.6800685560747652</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.943276262970244</v>
+        <v>2.943276262970286</v>
       </c>
       <c r="L17">
-        <v>3.558735982187727</v>
+        <v>3.558735982187741</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1094748207784733</v>
+        <v>0.1094748207783454</v>
       </c>
       <c r="E18">
-        <v>2.090018231539702</v>
+        <v>2.090018231539659</v>
       </c>
       <c r="F18">
-        <v>5.139377993995083</v>
+        <v>5.139377993995055</v>
       </c>
       <c r="G18">
-        <v>4.259831467017079</v>
+        <v>4.259831467017051</v>
       </c>
       <c r="H18">
-        <v>0.6659858269385168</v>
+        <v>0.6659858269385452</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.859710343288299</v>
+        <v>2.859710343288256</v>
       </c>
       <c r="L18">
         <v>3.460974219006459</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.627206601785531</v>
+        <v>2.627206601786099</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1079231214604874</v>
+        <v>0.1079231214604164</v>
       </c>
       <c r="E19">
-        <v>2.071507329812945</v>
+        <v>2.071507329812974</v>
       </c>
       <c r="F19">
-        <v>5.080139161109798</v>
+        <v>5.08013916110977</v>
       </c>
       <c r="G19">
-        <v>4.210218512742728</v>
+        <v>4.210218512742756</v>
       </c>
       <c r="H19">
-        <v>0.6612920803925846</v>
+        <v>0.6612920803925562</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.831595844387437</v>
+        <v>2.831595844387408</v>
       </c>
       <c r="L19">
         <v>3.428039242010612</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.735040320101405</v>
+        <v>2.735040320101007</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1150272350557628</v>
+        <v>0.1150272350559973</v>
       </c>
       <c r="E20">
-        <v>2.155125147725002</v>
+        <v>2.155125147724959</v>
       </c>
       <c r="F20">
-        <v>5.349775381848616</v>
+        <v>5.349775381848559</v>
       </c>
       <c r="G20">
-        <v>4.436112478719707</v>
+        <v>4.436112478719679</v>
       </c>
       <c r="H20">
-        <v>0.6827111610246988</v>
+        <v>0.6827111610246916</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.958830869003052</v>
+        <v>2.958830869003023</v>
       </c>
       <c r="L20">
         <v>3.576910986908501</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.102538398286868</v>
+        <v>3.102538398286924</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1413707336705841</v>
+        <v>0.1413707336703851</v>
       </c>
       <c r="E21">
-        <v>2.442681402053196</v>
+        <v>2.442681402053168</v>
       </c>
       <c r="F21">
-        <v>6.317697458463158</v>
+        <v>6.31769745846313</v>
       </c>
       <c r="G21">
         <v>5.248465322923892</v>
       </c>
       <c r="H21">
-        <v>0.76041023393892</v>
+        <v>0.7604102339389343</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.400916511798755</v>
+        <v>3.400916511798798</v>
       </c>
       <c r="L21">
-        <v>4.090528268567425</v>
+        <v>4.090528268567468</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.347544113890422</v>
+        <v>3.34754411389082</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1609506568719326</v>
+        <v>0.160950656872231</v>
       </c>
       <c r="E22">
         <v>2.637134443263591</v>
       </c>
       <c r="F22">
-        <v>7.008930651456694</v>
+        <v>7.008930651456751</v>
       </c>
       <c r="G22">
-        <v>5.829913720439691</v>
+        <v>5.82991372043972</v>
       </c>
       <c r="H22">
         <v>0.8162182041563426</v>
@@ -1202,7 +1202,7 @@
         <v>3.70369665177995</v>
       </c>
       <c r="L22">
-        <v>4.438907935531958</v>
+        <v>4.438907935531986</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.216268760148694</v>
+        <v>3.216268760148523</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>0.1502448905399234</v>
       </c>
       <c r="E23">
-        <v>2.532633056379652</v>
+        <v>2.53263305637968</v>
       </c>
       <c r="F23">
-        <v>6.633702156374056</v>
+        <v>6.633702156374085</v>
       </c>
       <c r="G23">
         <v>5.51414955491154</v>
       </c>
       <c r="H23">
-        <v>0.7859178314891153</v>
+        <v>0.7859178314891224</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>3.54060668907826</v>
       </c>
       <c r="L23">
-        <v>4.251607905969706</v>
+        <v>4.251607905969678</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.729101210586634</v>
+        <v>2.729101210586805</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1146289106178386</v>
+        <v>0.1146289106180376</v>
       </c>
       <c r="E24">
         <v>2.150511756580954</v>
@@ -1266,7 +1266,7 @@
         <v>4.423529793743853</v>
       </c>
       <c r="H24">
-        <v>0.681515053120215</v>
+        <v>0.6815150531202647</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.951795284228581</v>
+        <v>2.951795284228609</v>
       </c>
       <c r="L24">
-        <v>3.568691012471135</v>
+        <v>3.568691012471163</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.218624451461324</v>
+        <v>2.218624451461437</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08333563189306403</v>
+        <v>0.08333563189292192</v>
       </c>
       <c r="E25">
-        <v>1.757093884542002</v>
+        <v>1.757093884541973</v>
       </c>
       <c r="F25">
         <v>4.112612136338441</v>
       </c>
       <c r="G25">
-        <v>3.401227589927117</v>
+        <v>3.401227589927132</v>
       </c>
       <c r="H25">
         <v>0.5859665863867249</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.35867151943539</v>
+        <v>2.358671519435362</v>
       </c>
       <c r="L25">
-        <v>2.870736823631631</v>
+        <v>2.87073682363166</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.850819459152945</v>
+        <v>1.850819459153001</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06410955001253171</v>
+        <v>0.06410955001276619</v>
       </c>
       <c r="E2">
         <v>1.476572705002098</v>
       </c>
       <c r="F2">
-        <v>3.309963766664964</v>
+        <v>3.309963766664907</v>
       </c>
       <c r="G2">
-        <v>2.732162707832032</v>
+        <v>2.732162707832018</v>
       </c>
       <c r="H2">
         <v>0.5264398438062159</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.944244890689049</v>
+        <v>1.944244890689035</v>
       </c>
       <c r="L2">
-        <v>2.377396811849664</v>
+        <v>2.377396811849678</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.604754862135309</v>
+        <v>1.604754862135053</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05267634979441027</v>
+        <v>0.05267634979452396</v>
       </c>
       <c r="E3">
-        <v>1.289851679392996</v>
+        <v>1.289851679393038</v>
       </c>
       <c r="F3">
-        <v>2.80706282098015</v>
+        <v>2.807062820980065</v>
       </c>
       <c r="G3">
-        <v>2.314051101421256</v>
+        <v>2.314051101421271</v>
       </c>
       <c r="H3">
-        <v>0.4913816464724761</v>
+        <v>0.4913816464724974</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.672435069917114</v>
+        <v>1.6724350699171</v>
       </c>
       <c r="L3">
         <v>2.051370677569608</v>
@@ -494,19 +494,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04624955434475453</v>
+        <v>0.04624955434486111</v>
       </c>
       <c r="E4">
         <v>1.176314051821961</v>
       </c>
       <c r="F4">
-        <v>2.513607638089127</v>
+        <v>2.513607638089098</v>
       </c>
       <c r="G4">
-        <v>2.070512605444819</v>
+        <v>2.070512605444847</v>
       </c>
       <c r="H4">
-        <v>0.4720653818094149</v>
+        <v>0.4720653818093865</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>1.508775453694255</v>
       </c>
       <c r="L4">
-        <v>1.854135427089474</v>
+        <v>1.85413542708946</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.393852116800787</v>
+        <v>1.393852116801042</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04375569227463671</v>
+        <v>0.04375569227453013</v>
       </c>
       <c r="E5">
         <v>1.130257561346014</v>
       </c>
       <c r="F5">
-        <v>2.39726170346843</v>
+        <v>2.397261703468416</v>
       </c>
       <c r="G5">
         <v>1.974054992715622</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.44274178784957</v>
+        <v>1.442741787849613</v>
       </c>
       <c r="L5">
-        <v>1.774356368403915</v>
+        <v>1.7743563684039</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04334851005295803</v>
+        <v>0.04334851005295093</v>
       </c>
       <c r="E6">
         <v>1.122620883866801</v>
@@ -582,7 +582,7 @@
         <v>1.958192552261551</v>
       </c>
       <c r="H6">
-        <v>0.4635035912675534</v>
+        <v>0.4635035912675463</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.453940283447736</v>
+        <v>1.45394028344802</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04621544382243314</v>
+        <v>0.04621544382231946</v>
       </c>
       <c r="E7">
-        <v>1.175692145226947</v>
+        <v>1.175692145226975</v>
       </c>
       <c r="F7">
-        <v>2.512026187519297</v>
+        <v>2.512026187519268</v>
       </c>
       <c r="G7">
-        <v>2.069201105637859</v>
+        <v>2.069201105637902</v>
       </c>
       <c r="H7">
-        <v>0.4719640444312603</v>
+        <v>0.4719640444312745</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.507882420021318</v>
+        <v>1.507882420021303</v>
       </c>
       <c r="L7">
-        <v>1.853057263007315</v>
+        <v>1.853057263007358</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.765709828562393</v>
+        <v>1.76570982856245</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06002852577967133</v>
+        <v>0.06002852577988449</v>
       </c>
       <c r="E8">
-        <v>1.411916090783663</v>
+        <v>1.411916090783691</v>
       </c>
       <c r="F8">
-        <v>3.132981762211443</v>
+        <v>3.132981762211472</v>
       </c>
       <c r="G8">
-        <v>2.584917091491704</v>
+        <v>2.584917091491718</v>
       </c>
       <c r="H8">
-        <v>0.5138601873818303</v>
+        <v>0.5138601873818232</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.849753820651301</v>
+        <v>1.84975382065133</v>
       </c>
       <c r="L8">
-        <v>2.264277517154696</v>
+        <v>2.264277517154667</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09315872748086207</v>
+        <v>0.09315872748111076</v>
       </c>
       <c r="E9">
-        <v>1.887821054407979</v>
+        <v>1.887821054407965</v>
       </c>
       <c r="F9">
         <v>4.506084340848048</v>
@@ -708,7 +708,7 @@
         <v>2.55423861646635</v>
       </c>
       <c r="L9">
-        <v>3.101942408696246</v>
+        <v>3.101942408696189</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.859872946791029</v>
+        <v>2.859872946790915</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0.1235951027135442</v>
       </c>
       <c r="E10">
-        <v>2.25232403926276</v>
+        <v>2.252324039262703</v>
       </c>
       <c r="F10">
-        <v>5.669842096747999</v>
+        <v>5.669842096748056</v>
       </c>
       <c r="G10">
-        <v>4.704489708842829</v>
+        <v>4.7044897088428</v>
       </c>
       <c r="H10">
-        <v>0.7082922127437925</v>
+        <v>0.7082922127438209</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.107485757794407</v>
+        <v>3.107485757794421</v>
       </c>
       <c r="L10">
-        <v>3.750257984421239</v>
+        <v>3.750257984421268</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.078465703050142</v>
+        <v>3.078465703049915</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1395382145142037</v>
+        <v>0.1395382145144168</v>
       </c>
       <c r="E11">
-        <v>2.4237059427075</v>
+        <v>2.423705942707514</v>
       </c>
       <c r="F11">
-        <v>6.251851518253005</v>
+        <v>6.251851518252977</v>
       </c>
       <c r="G11">
         <v>5.193133011772488</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.371532105779266</v>
+        <v>3.371532105779309</v>
       </c>
       <c r="L11">
-        <v>4.056568985571204</v>
+        <v>4.056568985571175</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.162049832252933</v>
+        <v>3.162049832253047</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1459691750527128</v>
+        <v>0.1459691750522722</v>
       </c>
       <c r="E12">
-        <v>2.489686303055322</v>
+        <v>2.489686303055365</v>
       </c>
       <c r="F12">
-        <v>6.482028570136549</v>
+        <v>6.482028570136663</v>
       </c>
       <c r="G12">
-        <v>5.386600479881594</v>
+        <v>5.386600479881622</v>
       </c>
       <c r="H12">
-        <v>0.7736715435357056</v>
+        <v>0.773671543535734</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.473831573087949</v>
+        <v>3.473831573087978</v>
       </c>
       <c r="L12">
-        <v>4.174682492819542</v>
+        <v>4.174682492819471</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.144009325695663</v>
+        <v>3.144009325695549</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1445648365862269</v>
+        <v>0.1445648365860137</v>
       </c>
       <c r="E13">
-        <v>2.475422565640983</v>
+        <v>2.475422565640955</v>
       </c>
       <c r="F13">
-        <v>6.431977538097442</v>
+        <v>6.431977538097414</v>
       </c>
       <c r="G13">
-        <v>5.344521618896778</v>
+        <v>5.344521618896749</v>
       </c>
       <c r="H13">
-        <v>0.7696315248958996</v>
+        <v>0.7696315248958854</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.451686492508514</v>
+        <v>3.451686492508571</v>
       </c>
       <c r="L13">
-        <v>4.149141058046794</v>
+        <v>4.149141058046808</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.085324879172106</v>
+        <v>3.08532487917256</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1400587647231788</v>
+        <v>0.1400587647230083</v>
       </c>
       <c r="E14">
-        <v>2.429110536875157</v>
+        <v>2.429110536875186</v>
       </c>
       <c r="F14">
-        <v>6.270576976921376</v>
+        <v>6.270576976921461</v>
       </c>
       <c r="G14">
-        <v>5.208867569872012</v>
+        <v>5.208867569872098</v>
       </c>
       <c r="H14">
-        <v>0.7566096357074841</v>
+        <v>0.7566096357074912</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0.137353190099482</v>
       </c>
       <c r="E15">
-        <v>2.400893992175867</v>
+        <v>2.400893992175909</v>
       </c>
       <c r="F15">
-        <v>6.173066444920011</v>
+        <v>6.173066444920039</v>
       </c>
       <c r="G15">
-        <v>5.12694056557342</v>
+        <v>5.126940565573449</v>
       </c>
       <c r="H15">
-        <v>0.7487482901083666</v>
+        <v>0.7487482901083524</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.336245632036466</v>
+        <v>3.33624563203648</v>
       </c>
       <c r="L15">
-        <v>4.015754373804626</v>
+        <v>4.015754373804654</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.845690049491679</v>
+        <v>2.845690049491395</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1226025912004403</v>
+        <v>0.1226025912008026</v>
       </c>
       <c r="E16">
-        <v>2.241257768736489</v>
+        <v>2.241257768736503</v>
       </c>
       <c r="F16">
         <v>5.633039263493885</v>
@@ -974,7 +974,7 @@
         <v>3.090520574520966</v>
       </c>
       <c r="L16">
-        <v>3.730507132519818</v>
+        <v>3.730507132519833</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.721906129851845</v>
+        <v>2.721906129851902</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1141474643262939</v>
+        <v>0.1141474643262299</v>
       </c>
       <c r="E17">
-        <v>2.144924035527765</v>
+        <v>2.144924035527822</v>
       </c>
       <c r="F17">
-        <v>5.316599127486398</v>
+        <v>5.31659912748637</v>
       </c>
       <c r="G17">
-        <v>4.408308460361098</v>
+        <v>4.40830846036107</v>
       </c>
       <c r="H17">
-        <v>0.6800685560747652</v>
+        <v>0.6800685560747866</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.943276262970286</v>
+        <v>2.943276262970244</v>
       </c>
       <c r="L17">
-        <v>3.558735982187741</v>
+        <v>3.558735982187727</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1094748207783454</v>
+        <v>0.1094748207784733</v>
       </c>
       <c r="E18">
-        <v>2.090018231539659</v>
+        <v>2.090018231539702</v>
       </c>
       <c r="F18">
-        <v>5.139377993995055</v>
+        <v>5.139377993995083</v>
       </c>
       <c r="G18">
-        <v>4.259831467017051</v>
+        <v>4.259831467017079</v>
       </c>
       <c r="H18">
-        <v>0.6659858269385452</v>
+        <v>0.6659858269385168</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.859710343288256</v>
+        <v>2.859710343288299</v>
       </c>
       <c r="L18">
         <v>3.460974219006459</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.627206601786099</v>
+        <v>2.627206601785531</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1079231214604164</v>
+        <v>0.1079231214604874</v>
       </c>
       <c r="E19">
-        <v>2.071507329812974</v>
+        <v>2.071507329812945</v>
       </c>
       <c r="F19">
-        <v>5.08013916110977</v>
+        <v>5.080139161109798</v>
       </c>
       <c r="G19">
-        <v>4.210218512742756</v>
+        <v>4.210218512742728</v>
       </c>
       <c r="H19">
-        <v>0.6612920803925562</v>
+        <v>0.6612920803925846</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.831595844387408</v>
+        <v>2.831595844387437</v>
       </c>
       <c r="L19">
         <v>3.428039242010612</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.735040320101007</v>
+        <v>2.735040320101405</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1150272350559973</v>
+        <v>0.1150272350557628</v>
       </c>
       <c r="E20">
-        <v>2.155125147724959</v>
+        <v>2.155125147725002</v>
       </c>
       <c r="F20">
-        <v>5.349775381848559</v>
+        <v>5.349775381848616</v>
       </c>
       <c r="G20">
-        <v>4.436112478719679</v>
+        <v>4.436112478719707</v>
       </c>
       <c r="H20">
-        <v>0.6827111610246916</v>
+        <v>0.6827111610246988</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.958830869003023</v>
+        <v>2.958830869003052</v>
       </c>
       <c r="L20">
         <v>3.576910986908501</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.102538398286924</v>
+        <v>3.102538398286868</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1413707336703851</v>
+        <v>0.1413707336705841</v>
       </c>
       <c r="E21">
-        <v>2.442681402053168</v>
+        <v>2.442681402053196</v>
       </c>
       <c r="F21">
-        <v>6.31769745846313</v>
+        <v>6.317697458463158</v>
       </c>
       <c r="G21">
         <v>5.248465322923892</v>
       </c>
       <c r="H21">
-        <v>0.7604102339389343</v>
+        <v>0.76041023393892</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.400916511798798</v>
+        <v>3.400916511798755</v>
       </c>
       <c r="L21">
-        <v>4.090528268567468</v>
+        <v>4.090528268567425</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.34754411389082</v>
+        <v>3.347544113890422</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.160950656872231</v>
+        <v>0.1609506568719326</v>
       </c>
       <c r="E22">
         <v>2.637134443263591</v>
       </c>
       <c r="F22">
-        <v>7.008930651456751</v>
+        <v>7.008930651456694</v>
       </c>
       <c r="G22">
-        <v>5.82991372043972</v>
+        <v>5.829913720439691</v>
       </c>
       <c r="H22">
         <v>0.8162182041563426</v>
@@ -1202,7 +1202,7 @@
         <v>3.70369665177995</v>
       </c>
       <c r="L22">
-        <v>4.438907935531986</v>
+        <v>4.438907935531958</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.216268760148523</v>
+        <v>3.216268760148694</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>0.1502448905399234</v>
       </c>
       <c r="E23">
-        <v>2.53263305637968</v>
+        <v>2.532633056379652</v>
       </c>
       <c r="F23">
-        <v>6.633702156374085</v>
+        <v>6.633702156374056</v>
       </c>
       <c r="G23">
         <v>5.51414955491154</v>
       </c>
       <c r="H23">
-        <v>0.7859178314891224</v>
+        <v>0.7859178314891153</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>3.54060668907826</v>
       </c>
       <c r="L23">
-        <v>4.251607905969678</v>
+        <v>4.251607905969706</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.729101210586805</v>
+        <v>2.729101210586634</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1146289106180376</v>
+        <v>0.1146289106178386</v>
       </c>
       <c r="E24">
         <v>2.150511756580954</v>
@@ -1266,7 +1266,7 @@
         <v>4.423529793743853</v>
       </c>
       <c r="H24">
-        <v>0.6815150531202647</v>
+        <v>0.681515053120215</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.951795284228609</v>
+        <v>2.951795284228581</v>
       </c>
       <c r="L24">
-        <v>3.568691012471163</v>
+        <v>3.568691012471135</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.218624451461437</v>
+        <v>2.218624451461324</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08333563189292192</v>
+        <v>0.08333563189306403</v>
       </c>
       <c r="E25">
-        <v>1.757093884541973</v>
+        <v>1.757093884542002</v>
       </c>
       <c r="F25">
         <v>4.112612136338441</v>
       </c>
       <c r="G25">
-        <v>3.401227589927132</v>
+        <v>3.401227589927117</v>
       </c>
       <c r="H25">
         <v>0.5859665863867249</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.358671519435362</v>
+        <v>2.35867151943539</v>
       </c>
       <c r="L25">
-        <v>2.87073682363166</v>
+        <v>2.870736823631631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.850819459153001</v>
+        <v>1.850978673066123</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06410955001276619</v>
+        <v>0.06377296901707297</v>
       </c>
       <c r="E2">
-        <v>1.476572705002098</v>
+        <v>1.474852582725688</v>
       </c>
       <c r="F2">
-        <v>3.309963766664907</v>
+        <v>3.303636594690118</v>
       </c>
       <c r="G2">
-        <v>2.732162707832018</v>
+        <v>0.92534014674942</v>
       </c>
       <c r="H2">
-        <v>0.5264398438062159</v>
+        <v>1.803219453630064</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5273349031916936</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.944244890689035</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.377396811849678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.942838581811245</v>
+      </c>
+      <c r="M2">
+        <v>2.376238154209858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.604754862135053</v>
+        <v>1.604907483294966</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05267634979452396</v>
+        <v>0.05239881023498327</v>
       </c>
       <c r="E3">
-        <v>1.289851679393038</v>
+        <v>1.28839855121457</v>
       </c>
       <c r="F3">
-        <v>2.807062820980065</v>
+        <v>2.801815382112949</v>
       </c>
       <c r="G3">
-        <v>2.314051101421271</v>
+        <v>0.7813096846670362</v>
       </c>
       <c r="H3">
-        <v>0.4913816464724974</v>
+        <v>1.530504528103961</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4921620915122702</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.6724350699171</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.051370677569608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.671268560368858</v>
+      </c>
+      <c r="M3">
+        <v>2.050412646579446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.454762527178019</v>
+        <v>1.454908816477342</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04624955434486111</v>
+        <v>0.0460053515046468</v>
       </c>
       <c r="E4">
-        <v>1.176314051821961</v>
+        <v>1.175017657121458</v>
       </c>
       <c r="F4">
-        <v>2.513607638089098</v>
+        <v>2.508972188530436</v>
       </c>
       <c r="G4">
-        <v>2.070512605444847</v>
+        <v>0.6972275272668327</v>
       </c>
       <c r="H4">
-        <v>0.4720653818093865</v>
+        <v>1.371831732301843</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4727741617828656</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.508775453694255</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.85413542708946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.507745586810486</v>
+      </c>
+      <c r="M4">
+        <v>1.853291359874746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.393852116801042</v>
+        <v>1.393995359166667</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04375569227453013</v>
+        <v>0.0435244755000781</v>
       </c>
       <c r="E5">
-        <v>1.130257561346014</v>
+        <v>1.12902363789658</v>
       </c>
       <c r="F5">
-        <v>2.397261703468416</v>
+        <v>2.392865291017486</v>
       </c>
       <c r="G5">
-        <v>1.974054992715622</v>
+        <v>0.6638799251199003</v>
       </c>
       <c r="H5">
-        <v>0.4646979075908391</v>
+        <v>1.309029742053767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4653772020122418</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.442741787849613</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.7743563684039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.441765474175639</v>
+      </c>
+      <c r="M5">
+        <v>1.773556885835731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.383749163713702</v>
+        <v>1.3838918746996</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04334851005295093</v>
+        <v>0.04311941688112597</v>
       </c>
       <c r="E6">
-        <v>1.122620883866801</v>
+        <v>1.12139725977417</v>
       </c>
       <c r="F6">
-        <v>2.378121905113147</v>
+        <v>2.3737646222677</v>
       </c>
       <c r="G6">
-        <v>1.958192552261551</v>
+        <v>0.6583932200786222</v>
       </c>
       <c r="H6">
-        <v>0.4635035912675463</v>
+        <v>1.298704539664485</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4641779736975238</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.431812659091747</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.761141247332048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.430845122919365</v>
+      </c>
+      <c r="M6">
+        <v>1.760349067711758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.45394028344802</v>
+        <v>1.454086533418121</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04621544382231946</v>
+        <v>0.04597141838284102</v>
       </c>
       <c r="E7">
-        <v>1.175692145226975</v>
+        <v>1.174396598213448</v>
       </c>
       <c r="F7">
-        <v>2.512026187519268</v>
+        <v>2.507394000714044</v>
       </c>
       <c r="G7">
-        <v>2.069201105637902</v>
+        <v>0.696774295233169</v>
       </c>
       <c r="H7">
-        <v>0.4719640444312745</v>
+        <v>1.370977661148387</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4726724278426175</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.507882420021303</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.853057263007358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.506853283368017</v>
+      </c>
+      <c r="M7">
+        <v>1.852213804048162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.76570982856245</v>
+        <v>1.76586731552581</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06002852577988449</v>
+        <v>0.05971299664241769</v>
       </c>
       <c r="E8">
-        <v>1.411916090783691</v>
+        <v>1.410289798693029</v>
       </c>
       <c r="F8">
-        <v>3.132981762211472</v>
+        <v>3.127039111004166</v>
       </c>
       <c r="G8">
-        <v>2.584917091491718</v>
+        <v>0.8746589839456789</v>
       </c>
       <c r="H8">
-        <v>0.5138601873818232</v>
+        <v>1.707139307103304</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.514716025615499</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.84975382065133</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2.264277517154667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.848432751481411</v>
+      </c>
+      <c r="M8">
+        <v>2.263190259057353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.389048826596195</v>
+        <v>2.389203813018071</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09315872748111076</v>
+        <v>0.09267198615636119</v>
       </c>
       <c r="E9">
-        <v>1.887821054407965</v>
+        <v>1.88546457696782</v>
       </c>
       <c r="F9">
-        <v>4.506084340848048</v>
+        <v>4.497021169817003</v>
       </c>
       <c r="G9">
-        <v>3.729918176401014</v>
+        <v>1.267817758694349</v>
       </c>
       <c r="H9">
-        <v>0.6162474359279244</v>
+        <v>2.455114441574295</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6173794198982989</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.55423861646635</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3.101942408696189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.552229275447559</v>
+      </c>
+      <c r="M9">
+        <v>3.100276476987034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.859872946790915</v>
+        <v>2.859998424265711</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1235951027135442</v>
+        <v>0.1229483518984793</v>
       </c>
       <c r="E10">
-        <v>2.252324039262703</v>
+        <v>2.249333060505066</v>
       </c>
       <c r="F10">
-        <v>5.669842096748056</v>
+        <v>5.657861570777584</v>
       </c>
       <c r="G10">
-        <v>4.7044897088428</v>
+        <v>1.60113681869106</v>
       </c>
       <c r="H10">
-        <v>0.7082922127438209</v>
+        <v>3.092865069059343</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7096132309264149</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.107485757794421</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>3.750257984421268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.104837519124715</v>
+      </c>
+      <c r="M10">
+        <v>3.748051543263387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.078465703049915</v>
+        <v>3.078567130821227</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1395382145144168</v>
+        <v>0.1388057747676257</v>
       </c>
       <c r="E11">
-        <v>2.423705942707514</v>
+        <v>2.420387525718141</v>
       </c>
       <c r="F11">
-        <v>6.251851518252977</v>
+        <v>6.238303468143613</v>
       </c>
       <c r="G11">
-        <v>5.193133011772488</v>
+        <v>1.767918420766335</v>
       </c>
       <c r="H11">
-        <v>0.7550995896051234</v>
+        <v>3.412884146889013</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7565012695464972</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.371532105779309</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.056568985571175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.368541630749505</v>
+      </c>
+      <c r="M11">
+        <v>4.054072090282943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.162049832253047</v>
+        <v>3.16214001207436</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1459691750522722</v>
+        <v>0.1452017145353892</v>
       </c>
       <c r="E12">
-        <v>2.489686303055365</v>
+        <v>2.486235988289323</v>
       </c>
       <c r="F12">
-        <v>6.482028570136663</v>
+        <v>6.467838468934303</v>
       </c>
       <c r="G12">
-        <v>5.386600479881622</v>
+        <v>1.833896976815112</v>
       </c>
       <c r="H12">
-        <v>0.773671543535734</v>
+        <v>3.539625557968463</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7751026759950506</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.473831573087978</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.174682492819471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.470701079071461</v>
+      </c>
+      <c r="M12">
+        <v>4.172066617429266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.144009325695549</v>
+        <v>3.144102035980666</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1445648365860137</v>
+        <v>0.143805047739022</v>
       </c>
       <c r="E13">
-        <v>2.475422565640955</v>
+        <v>2.472001057627537</v>
       </c>
       <c r="F13">
-        <v>6.431977538097414</v>
+        <v>6.417928160112695</v>
       </c>
       <c r="G13">
-        <v>5.344521618896749</v>
+        <v>1.819549278877957</v>
       </c>
       <c r="H13">
-        <v>0.7696315248958854</v>
+        <v>3.512057881880907</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7710563697629951</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.451686492508571</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4.149141058046808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.448586680297865</v>
+      </c>
+      <c r="M13">
+        <v>4.146551260948286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.08532487917256</v>
+        <v>3.08542542897618</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1400587647230083</v>
+        <v>0.1393235005968023</v>
       </c>
       <c r="E14">
-        <v>2.429110536875186</v>
+        <v>2.425781444099044</v>
       </c>
       <c r="F14">
-        <v>6.270576976921461</v>
+        <v>6.256977178355726</v>
       </c>
       <c r="G14">
-        <v>5.208867569872098</v>
+        <v>1.773285526734071</v>
       </c>
       <c r="H14">
-        <v>0.7566096357074912</v>
+        <v>3.423191199545755</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7580137630584503</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.379898390161671</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4.06624047532317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.376896626603639</v>
+      </c>
+      <c r="M14">
+        <v>4.06373399062997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.049490050684312</v>
+        <v>3.049595100784302</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.137353190099482</v>
+        <v>0.1366325864644935</v>
       </c>
       <c r="E15">
-        <v>2.400893992175909</v>
+        <v>2.397620390291905</v>
       </c>
       <c r="F15">
-        <v>6.173066444920039</v>
+        <v>6.15973519715655</v>
       </c>
       <c r="G15">
-        <v>5.126940565573449</v>
+        <v>1.745337760160879</v>
       </c>
       <c r="H15">
-        <v>0.7487482901083524</v>
+        <v>3.369525700652446</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7501395727679636</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.33624563203648</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4.015754373804654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.333302457073785</v>
+      </c>
+      <c r="M15">
+        <v>4.013297653270783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.845690049491395</v>
+        <v>2.845816838242399</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1226025912008026</v>
+        <v>0.1219611261158278</v>
       </c>
       <c r="E16">
-        <v>2.241257768736503</v>
+        <v>2.238287231471503</v>
       </c>
       <c r="F16">
-        <v>5.633039263493885</v>
+        <v>5.62115528529128</v>
       </c>
       <c r="G16">
-        <v>4.673617708357909</v>
+        <v>1.590592677564246</v>
       </c>
       <c r="H16">
-        <v>0.70534358421083</v>
+        <v>3.072651549714465</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7066591991838109</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.090520574520966</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.730507132519833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.087893435233596</v>
+      </c>
+      <c r="M16">
+        <v>3.728318579878632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.721906129851902</v>
+        <v>2.722043172682675</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1141474643262299</v>
+        <v>0.1135508209715113</v>
       </c>
       <c r="E17">
-        <v>2.144924035527822</v>
+        <v>2.142128116298537</v>
       </c>
       <c r="F17">
-        <v>5.31659912748637</v>
+        <v>5.305533266575765</v>
       </c>
       <c r="G17">
-        <v>4.40830846036107</v>
+        <v>1.499941125221483</v>
       </c>
       <c r="H17">
-        <v>0.6800685560747866</v>
+        <v>2.8989668491499</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6813361979707295</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.943276262970244</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>3.558735982187727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.940828020838978</v>
+      </c>
+      <c r="M17">
+        <v>3.556699006647378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.651111777239919</v>
+        <v>2.651253765825288</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1094748207784733</v>
+        <v>0.1089027995021468</v>
       </c>
       <c r="E18">
-        <v>2.090018231539702</v>
+        <v>2.087319278269462</v>
       </c>
       <c r="F18">
-        <v>5.139377993995083</v>
+        <v>5.128761153924358</v>
       </c>
       <c r="G18">
-        <v>4.259831467017079</v>
+        <v>1.449179163006534</v>
       </c>
       <c r="H18">
-        <v>0.6659858269385168</v>
+        <v>2.801789042662307</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6672254002364255</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.859710343288299</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3.460974219006459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.857360376583017</v>
+      </c>
+      <c r="M18">
+        <v>3.459020433328917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.627206601785531</v>
+        <v>2.627350116110961</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1079231214604874</v>
+        <v>0.1073592551836597</v>
       </c>
       <c r="E19">
-        <v>2.071507329812945</v>
+        <v>2.068840667342656</v>
       </c>
       <c r="F19">
-        <v>5.080139161109798</v>
+        <v>5.06967098586702</v>
       </c>
       <c r="G19">
-        <v>4.210218512742728</v>
+        <v>1.432212266580905</v>
       </c>
       <c r="H19">
-        <v>0.6612920803925846</v>
+        <v>2.76932136495455</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6625220760759234</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.831595844387437</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.428039242010612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.829278430403718</v>
+      </c>
+      <c r="M19">
+        <v>3.426112999197272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.735040320101405</v>
+        <v>2.735176373540924</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1150272350557628</v>
+        <v>0.1144259444882394</v>
       </c>
       <c r="E20">
-        <v>2.155125147725002</v>
+        <v>2.152311012964603</v>
       </c>
       <c r="F20">
-        <v>5.349775381848616</v>
+        <v>5.338624742398139</v>
       </c>
       <c r="G20">
-        <v>4.436112478719707</v>
+        <v>1.509444442328117</v>
       </c>
       <c r="H20">
-        <v>0.6827111610246988</v>
+        <v>2.917166376036164</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6839839608684528</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.958830869003052</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3.576910986908501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.956364079062539</v>
+      </c>
+      <c r="M20">
+        <v>3.574858304328686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.102538398286868</v>
+        <v>3.102636709803107</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1413707336705841</v>
+        <v>0.1406283431553845</v>
       </c>
       <c r="E21">
-        <v>2.442681402053196</v>
+        <v>2.439325403017392</v>
       </c>
       <c r="F21">
-        <v>6.317697458463158</v>
+        <v>6.303967065060135</v>
       </c>
       <c r="G21">
-        <v>5.248465322923892</v>
+        <v>1.786791554535341</v>
       </c>
       <c r="H21">
-        <v>0.76041023393892</v>
+        <v>3.449130617053186</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7618204795704244</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.400916511798755</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4.090528268567425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.397886262512372</v>
+      </c>
+      <c r="M21">
+        <v>4.087997583415259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.347544113890422</v>
+        <v>3.347604761585387</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1609506568719326</v>
+        <v>0.1601004540643487</v>
       </c>
       <c r="E22">
-        <v>2.637134443263591</v>
+        <v>2.63337625521369</v>
       </c>
       <c r="F22">
-        <v>7.008930651456694</v>
+        <v>6.99321995915227</v>
       </c>
       <c r="G22">
-        <v>5.829913720439691</v>
+        <v>1.984972148021654</v>
       </c>
       <c r="H22">
-        <v>0.8162182041563426</v>
+        <v>3.830109162297646</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.817711624003735</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.70369665177995</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.438907935531958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.700234861965953</v>
+      </c>
+      <c r="M22">
+        <v>4.436010255218321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.216268760148694</v>
+        <v>3.21635098259361</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1502448905399234</v>
+        <v>0.1494539864211077</v>
       </c>
       <c r="E23">
-        <v>2.532633056379652</v>
+        <v>2.52909499999997</v>
       </c>
       <c r="F23">
-        <v>6.633702156374056</v>
+        <v>6.619081754719417</v>
       </c>
       <c r="G23">
-        <v>5.51414955491154</v>
+        <v>1.877379177995579</v>
       </c>
       <c r="H23">
-        <v>0.7859178314891153</v>
+        <v>3.623193720024432</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.7873676233712033</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.54060668907826</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4.251607905969706</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.537382400966379</v>
+      </c>
+      <c r="M23">
+        <v>4.248912287290182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.729101210586634</v>
+        <v>2.729237714245528</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1146289106178386</v>
+        <v>0.1140297245774917</v>
       </c>
       <c r="E24">
-        <v>2.150511756580954</v>
+        <v>2.147705867568774</v>
       </c>
       <c r="F24">
-        <v>5.334761900614211</v>
+        <v>5.32364965501398</v>
       </c>
       <c r="G24">
-        <v>4.423529793743853</v>
+        <v>1.505143818182319</v>
       </c>
       <c r="H24">
-        <v>0.681515053120215</v>
+        <v>2.908930124217449</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6827855225544539</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.951795284228581</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.568691012471135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.949336893796684</v>
+      </c>
+      <c r="M24">
+        <v>3.566645443182068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.218624451461324</v>
+        <v>2.218783807377179</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08333563189306403</v>
+        <v>0.08289982378326499</v>
       </c>
       <c r="E25">
-        <v>1.757093884542002</v>
+        <v>1.754947735711454</v>
       </c>
       <c r="F25">
-        <v>4.112612136338441</v>
+        <v>4.104476388680183</v>
       </c>
       <c r="G25">
-        <v>3.401227589927117</v>
+        <v>1.155155587567776</v>
       </c>
       <c r="H25">
-        <v>0.5859665863867249</v>
+        <v>2.240221070372399</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5870257337900568</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.35867151943539</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.870736823631631</v>
+        <v>2.356866036548368</v>
+      </c>
+      <c r="M25">
+        <v>2.869242753803974</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.850978673066123</v>
+        <v>0.2718930131413941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06377296901707297</v>
+        <v>0.01892540276182353</v>
       </c>
       <c r="E2">
-        <v>1.474852582725688</v>
+        <v>0.09257021583526281</v>
       </c>
       <c r="F2">
-        <v>3.303636594690118</v>
+        <v>4.227264950924905</v>
       </c>
       <c r="G2">
-        <v>0.92534014674942</v>
+        <v>0.0007420260743133858</v>
       </c>
       <c r="H2">
-        <v>1.803219453630064</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5273349031916936</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2675694144599703</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.839033528268999</v>
       </c>
       <c r="L2">
-        <v>1.942838581811245</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.376238154209858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.025310302998918</v>
+      </c>
+      <c r="O2">
+        <v>3.118003072351186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.604907483294966</v>
+        <v>0.237666841545348</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05239881023498327</v>
+        <v>0.01744614289648028</v>
       </c>
       <c r="E3">
-        <v>1.28839855121457</v>
+        <v>0.08276127763594587</v>
       </c>
       <c r="F3">
-        <v>2.801815382112949</v>
+        <v>3.696503997159056</v>
       </c>
       <c r="G3">
-        <v>0.7813096846670362</v>
+        <v>0.0007568027319227065</v>
       </c>
       <c r="H3">
-        <v>1.530504528103961</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4921620915122702</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2341337288827958</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.159352355366281</v>
       </c>
       <c r="L3">
-        <v>1.671268560368858</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.050412646579446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.019734553755626</v>
+      </c>
+      <c r="O3">
+        <v>2.717332649486607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.454908816477342</v>
+        <v>0.2168224256789415</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0460053515046468</v>
+        <v>0.01658523978249615</v>
       </c>
       <c r="E4">
-        <v>1.175017657121458</v>
+        <v>0.07697127624366829</v>
       </c>
       <c r="F4">
-        <v>2.508972188530436</v>
+        <v>3.387547758380293</v>
       </c>
       <c r="G4">
-        <v>0.6972275272668327</v>
+        <v>0.0007659871152433041</v>
       </c>
       <c r="H4">
-        <v>1.371831732301843</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4727741617828656</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2145260343647379</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.751531838493236</v>
       </c>
       <c r="L4">
-        <v>1.507745586810486</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.853291359874746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.017715811191067</v>
+      </c>
+      <c r="O4">
+        <v>2.484297884969848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.393995359166667</v>
+        <v>0.2083662058067404</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0435244755000781</v>
+        <v>0.0162437720589208</v>
       </c>
       <c r="E5">
-        <v>1.12902363789658</v>
+        <v>0.07466225141930138</v>
       </c>
       <c r="F5">
-        <v>2.392865291017486</v>
+        <v>3.26527856360687</v>
       </c>
       <c r="G5">
-        <v>0.6638799251199003</v>
+        <v>0.0007697650670410084</v>
       </c>
       <c r="H5">
-        <v>1.309029742053767</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4653772020122418</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2067331686505298</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.587299925046835</v>
       </c>
       <c r="L5">
-        <v>1.441765474175639</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.773556885835731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.01723407335426</v>
+      </c>
+      <c r="O5">
+        <v>2.392114329202315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.3838918746996</v>
+        <v>0.2069642213438101</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04311941688112597</v>
+        <v>0.01618757015677219</v>
       </c>
       <c r="E6">
-        <v>1.12139725977417</v>
+        <v>0.0742816722440125</v>
       </c>
       <c r="F6">
-        <v>2.3737646222677</v>
+        <v>3.245178708605607</v>
       </c>
       <c r="G6">
-        <v>0.6583932200786222</v>
+        <v>0.0007703947131952203</v>
       </c>
       <c r="H6">
-        <v>1.298704539664485</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4641779736975238</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.205450181436909</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.56013618286562</v>
       </c>
       <c r="L6">
-        <v>1.430845122919365</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.760349067711758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.017174331302286</v>
+      </c>
+      <c r="O6">
+        <v>2.3769624072102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.454086533418121</v>
+        <v>0.2167082341798476</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04597141838284102</v>
+        <v>0.01658059980522997</v>
       </c>
       <c r="E7">
-        <v>1.174396598213448</v>
+        <v>0.07693994149538597</v>
       </c>
       <c r="F7">
-        <v>2.507394000714044</v>
+        <v>3.385884843684494</v>
       </c>
       <c r="G7">
-        <v>0.696774295233169</v>
+        <v>0.0007660379145082441</v>
       </c>
       <c r="H7">
-        <v>1.370977661148387</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4726724278426175</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.214420179511194</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.749309545253311</v>
       </c>
       <c r="L7">
-        <v>1.506853283368017</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1.852213804048162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.017707949465958</v>
+      </c>
+      <c r="O7">
+        <v>2.483043997231476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.76586731552581</v>
+        <v>0.2600533555391991</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05971299664241769</v>
+        <v>0.01840383904733689</v>
       </c>
       <c r="E8">
-        <v>1.410289798693029</v>
+        <v>0.08913454007943145</v>
       </c>
       <c r="F8">
-        <v>3.127039111004166</v>
+        <v>4.040337250599066</v>
       </c>
       <c r="G8">
-        <v>0.8746589839456789</v>
+        <v>0.0007471026235019534</v>
       </c>
       <c r="H8">
-        <v>1.707139307103304</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.514716025615499</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2558270396998665</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.602424438771152</v>
       </c>
       <c r="L8">
-        <v>1.848432751481411</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2.263190259057353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.023088455405272</v>
+      </c>
+      <c r="O8">
+        <v>2.976843395933599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.389203813018071</v>
+        <v>0.3466550798801222</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09267198615636119</v>
+        <v>0.02249994840860747</v>
       </c>
       <c r="E9">
-        <v>1.88546457696782</v>
+        <v>0.1153370165094536</v>
       </c>
       <c r="F9">
-        <v>4.497021169817003</v>
+        <v>5.492380539032808</v>
       </c>
       <c r="G9">
-        <v>1.267817758694349</v>
+        <v>0.0007104600113475889</v>
       </c>
       <c r="H9">
-        <v>2.455114441574295</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6173794198982989</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.346230443184723</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6.374675417675888</v>
       </c>
       <c r="L9">
-        <v>2.552229275447559</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>3.100276476987034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.045403623290923</v>
+      </c>
+      <c r="O9">
+        <v>4.074716012346897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.859998424265711</v>
+        <v>0.4116598480395766</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1229483518984793</v>
+        <v>0.02609510272946247</v>
       </c>
       <c r="E10">
-        <v>2.249333060505066</v>
+        <v>0.1367667189301542</v>
       </c>
       <c r="F10">
-        <v>5.657861570777584</v>
+        <v>6.723005843719022</v>
       </c>
       <c r="G10">
-        <v>1.60113681869106</v>
+        <v>0.0006831369249122263</v>
       </c>
       <c r="H10">
-        <v>3.092865069059343</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7096132309264149</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.421620657845267</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.77994232482996</v>
       </c>
       <c r="L10">
-        <v>3.104837519124715</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3.748051543263387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.069932462410833</v>
+      </c>
+      <c r="O10">
+        <v>5.007526801480282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.078567130821227</v>
+        <v>0.4416402194543849</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1388057747676257</v>
+        <v>0.02794645310965205</v>
       </c>
       <c r="E11">
-        <v>2.420387525718141</v>
+        <v>0.1472325600307194</v>
       </c>
       <c r="F11">
-        <v>6.238303468143613</v>
+        <v>7.337531253241991</v>
       </c>
       <c r="G11">
-        <v>1.767918420766335</v>
+        <v>0.0006704009737578604</v>
       </c>
       <c r="H11">
-        <v>3.412884146889013</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7565012695464972</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4589180207072872</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.455076633166556</v>
       </c>
       <c r="L11">
-        <v>3.368541630749505</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>4.054072090282943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.083103239798348</v>
+      </c>
+      <c r="O11">
+        <v>5.474108297579733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.16214001207436</v>
+        <v>0.4530628954687188</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1452017145353892</v>
+        <v>0.02868935817412366</v>
       </c>
       <c r="E12">
-        <v>2.486235988289323</v>
+        <v>0.15132709640611</v>
       </c>
       <c r="F12">
-        <v>6.467838468934303</v>
+        <v>7.580332265050799</v>
       </c>
       <c r="G12">
-        <v>1.833896976815112</v>
+        <v>0.000665508660420976</v>
       </c>
       <c r="H12">
-        <v>3.539625557968463</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7751026759950506</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4735959210726861</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.717461778192074</v>
       </c>
       <c r="L12">
-        <v>3.470701079071461</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4.172066617429266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.088403465206213</v>
+      </c>
+      <c r="O12">
+        <v>5.658594723341793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.144102035980666</v>
+        <v>0.4505995170962223</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.143805047739022</v>
+        <v>0.02852728499954749</v>
       </c>
       <c r="E13">
-        <v>2.472001057627537</v>
+        <v>0.1504388774374803</v>
       </c>
       <c r="F13">
-        <v>6.417928160112695</v>
+        <v>7.527548567518039</v>
       </c>
       <c r="G13">
-        <v>1.819549278877957</v>
+        <v>0.0006665658912061723</v>
       </c>
       <c r="H13">
-        <v>3.512057881880907</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7710563697629951</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4704077460377647</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.660622770521059</v>
       </c>
       <c r="L13">
-        <v>3.448586680297865</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>4.146551260948286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.087247655636702</v>
+      </c>
+      <c r="O13">
+        <v>5.618481697223729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.08542542897618</v>
+        <v>0.442578501288466</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1393235005968023</v>
+        <v>0.02800665806946379</v>
       </c>
       <c r="E14">
-        <v>2.425781444099044</v>
+        <v>0.1475665944135223</v>
       </c>
       <c r="F14">
-        <v>6.256977178355726</v>
+        <v>7.35728904242373</v>
       </c>
       <c r="G14">
-        <v>1.773285526734071</v>
+        <v>0.0006700000473680594</v>
       </c>
       <c r="H14">
-        <v>3.423191199545755</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7580137630584503</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4601136315204144</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.476517610568919</v>
       </c>
       <c r="L14">
-        <v>3.376896626603639</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>4.06373399062997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.083532881007486</v>
+      </c>
+      <c r="O14">
+        <v>5.489117857710141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.049595100784302</v>
+        <v>0.4376748438884306</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1366325864644935</v>
+        <v>0.02769359361837287</v>
       </c>
       <c r="E15">
-        <v>2.397620390291905</v>
+        <v>0.1458253295531371</v>
       </c>
       <c r="F15">
-        <v>6.15973519715655</v>
+        <v>7.254392746985673</v>
       </c>
       <c r="G15">
-        <v>1.745337760160879</v>
+        <v>0.0006720936270685485</v>
       </c>
       <c r="H15">
-        <v>3.369525700652446</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7501395727679636</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.453884658177202</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.364678956385802</v>
       </c>
       <c r="L15">
-        <v>3.333302457073785</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>4.013297653270783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.081298942845663</v>
+      </c>
+      <c r="O15">
+        <v>5.410955468438516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.845816838242399</v>
+        <v>0.4097096802467206</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1219611261158278</v>
+        <v>0.02597929708477187</v>
       </c>
       <c r="E16">
-        <v>2.238287231471503</v>
+        <v>0.1360994083013125</v>
       </c>
       <c r="F16">
-        <v>5.62115528529128</v>
+        <v>6.684121185406866</v>
       </c>
       <c r="G16">
-        <v>1.590592677564246</v>
+        <v>0.0006839610823015765</v>
       </c>
       <c r="H16">
-        <v>3.072651549714465</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7066591991838109</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4192532342434987</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.736665784138722</v>
       </c>
       <c r="L16">
-        <v>3.087893435233596</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>3.728318579878632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.069114150289323</v>
+      </c>
+      <c r="O16">
+        <v>4.978020501825227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.722043172682675</v>
+        <v>0.392665907424373</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1135508209715113</v>
+        <v>0.02498951602769983</v>
       </c>
       <c r="E17">
-        <v>2.142128116298537</v>
+        <v>0.1303341628153056</v>
       </c>
       <c r="F17">
-        <v>5.305533266575765</v>
+        <v>6.349673048713811</v>
       </c>
       <c r="G17">
-        <v>1.499941125221483</v>
+        <v>0.0006911470873893766</v>
       </c>
       <c r="H17">
-        <v>2.8989668491499</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6813361979707295</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3988529707027624</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.361560131197535</v>
       </c>
       <c r="L17">
-        <v>2.940828020838978</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>3.556699006647378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.062170374592256</v>
+      </c>
+      <c r="O17">
+        <v>4.724320760847661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.651253765825288</v>
+        <v>0.3829005529900087</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1089027995021468</v>
+        <v>0.02443972384594728</v>
       </c>
       <c r="E18">
-        <v>2.087319278269462</v>
+        <v>0.1270835795694047</v>
       </c>
       <c r="F18">
-        <v>5.128761153924358</v>
+        <v>6.162291287187315</v>
       </c>
       <c r="G18">
-        <v>1.449179163006534</v>
+        <v>0.0006952533208366179</v>
       </c>
       <c r="H18">
-        <v>2.801789042662307</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6672254002364255</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3873927401507586</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7.149068964012258</v>
       </c>
       <c r="L18">
-        <v>2.857360376583017</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>3.459020433328917</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.058364370472972</v>
+      </c>
+      <c r="O18">
+        <v>4.582246921992379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.627350116110961</v>
+        <v>0.3796003613885404</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1073592551836597</v>
+        <v>0.02425665154205303</v>
       </c>
       <c r="E19">
-        <v>2.068840667342656</v>
+        <v>0.1259934976624528</v>
       </c>
       <c r="F19">
-        <v>5.06967098586702</v>
+        <v>6.099645699050086</v>
       </c>
       <c r="G19">
-        <v>1.432212266580905</v>
+        <v>0.000696639643684234</v>
       </c>
       <c r="H19">
-        <v>2.76932136495455</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6625220760759234</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3835563141530116</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.077642649893306</v>
       </c>
       <c r="L19">
-        <v>2.829278430403718</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>3.426112999197272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.057107323226177</v>
+      </c>
+      <c r="O19">
+        <v>4.534759501166519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.735176373540924</v>
+        <v>0.3944762647106757</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1144259444882394</v>
+        <v>0.0250927947101367</v>
       </c>
       <c r="E20">
-        <v>2.152311012964603</v>
+        <v>0.1309409330590334</v>
       </c>
       <c r="F20">
-        <v>5.338624742398139</v>
+        <v>6.384745795897544</v>
       </c>
       <c r="G20">
-        <v>1.509444442328117</v>
+        <v>0.0006903850756329876</v>
       </c>
       <c r="H20">
-        <v>2.917166376036164</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6839839608684528</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4009955404638106</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.401143554262006</v>
       </c>
       <c r="L20">
-        <v>2.956364079062539</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>3.574858304328686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.06288994701535</v>
+      </c>
+      <c r="O20">
+        <v>4.75091846001294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.102636709803107</v>
+        <v>0.4449324766790994</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1406283431553845</v>
+        <v>0.02815833785501232</v>
       </c>
       <c r="E21">
-        <v>2.439325403017392</v>
+        <v>0.1484064199405211</v>
       </c>
       <c r="F21">
-        <v>6.303967065060135</v>
+        <v>7.4070031517752</v>
       </c>
       <c r="G21">
-        <v>1.786791554535341</v>
+        <v>0.0006689934812756123</v>
       </c>
       <c r="H21">
-        <v>3.449130617053186</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7618204795704244</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4631210498690734</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.530396175155005</v>
       </c>
       <c r="L21">
-        <v>3.397886262512372</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>4.087997583415259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.084615312651408</v>
+      </c>
+      <c r="O21">
+        <v>5.526886866445494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.347604761585387</v>
+        <v>0.4783220085265043</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1601004540643487</v>
+        <v>0.03041393047496621</v>
       </c>
       <c r="E22">
-        <v>2.63337625521369</v>
+        <v>0.1606070085769922</v>
       </c>
       <c r="F22">
-        <v>6.99321995915227</v>
+        <v>8.135554835122605</v>
       </c>
       <c r="G22">
-        <v>1.984972148021654</v>
+        <v>0.000654589407006053</v>
       </c>
       <c r="H22">
-        <v>3.830109162297646</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.817711624003735</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5070427107712447</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.308776310273032</v>
       </c>
       <c r="L22">
-        <v>3.700234861965953</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>4.436010255218321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.100649910854031</v>
+      </c>
+      <c r="O22">
+        <v>6.080757916135042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.21635098259361</v>
+        <v>0.4604593177069489</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1494539864211077</v>
+        <v>0.02918232889031458</v>
       </c>
       <c r="E23">
-        <v>2.52909499999997</v>
+        <v>0.154011584681534</v>
       </c>
       <c r="F23">
-        <v>6.619081754719417</v>
+        <v>7.740243339352844</v>
       </c>
       <c r="G23">
-        <v>1.877379177995579</v>
+        <v>0.0006623265874844415</v>
       </c>
       <c r="H23">
-        <v>3.623193720024432</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7873676233712033</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4832455673440705</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8.888985569147536</v>
       </c>
       <c r="L23">
-        <v>3.537382400966379</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>4.248912287290182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.09191549723414</v>
+      </c>
+      <c r="O23">
+        <v>5.780141679162739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.729237714245528</v>
+        <v>0.3936576991331577</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1140297245774917</v>
+        <v>0.02504604322768245</v>
       </c>
       <c r="E24">
-        <v>2.147705867568774</v>
+        <v>0.1306664150945736</v>
       </c>
       <c r="F24">
-        <v>5.32364965501398</v>
+        <v>6.368874311802415</v>
       </c>
       <c r="G24">
-        <v>1.505143818182319</v>
+        <v>0.000690729657601949</v>
       </c>
       <c r="H24">
-        <v>2.908930124217449</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6827855225544539</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4000260581198489</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7.383238150561453</v>
       </c>
       <c r="L24">
-        <v>2.949336893796684</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3.566645443182068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.062564050500939</v>
+      </c>
+      <c r="O24">
+        <v>4.738881984009623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.218783807377179</v>
+        <v>0.3230172961482793</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08289982378326499</v>
+        <v>0.02131266005838239</v>
       </c>
       <c r="E25">
-        <v>1.754947735711454</v>
+        <v>0.1079332794511245</v>
       </c>
       <c r="F25">
-        <v>4.104476388680183</v>
+        <v>5.076055345400704</v>
       </c>
       <c r="G25">
-        <v>1.155155587567776</v>
+        <v>0.0007203831132417435</v>
       </c>
       <c r="H25">
-        <v>2.240221070372399</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5870257337900568</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3204881386273115</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.880798490319904</v>
       </c>
       <c r="L25">
-        <v>2.356866036548368</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>2.869242753803974</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.038014362013669</v>
+      </c>
+      <c r="O25">
+        <v>3.759623596977264</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2718930131413941</v>
+        <v>0.2682190561509685</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01892540276182353</v>
+        <v>0.2645864840509944</v>
       </c>
       <c r="E2">
-        <v>0.09257021583526281</v>
+        <v>0.1878048295956631</v>
       </c>
       <c r="F2">
-        <v>4.227264950924905</v>
+        <v>0.5222806857120972</v>
       </c>
       <c r="G2">
-        <v>0.0007420260743133858</v>
+        <v>0.2452621826409001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2297877498172056</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2675694144599703</v>
+        <v>0.1803500915316221</v>
       </c>
       <c r="K2">
-        <v>4.839033528268999</v>
+        <v>2.828119629783458</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.025310302998918</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.118003072351186</v>
+        <v>0.9503070336014332</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.237666841545348</v>
+        <v>0.2346360089690194</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01744614289648028</v>
+        <v>0.23470787929989</v>
       </c>
       <c r="E3">
-        <v>0.08276127763594587</v>
+        <v>0.167223676320873</v>
       </c>
       <c r="F3">
-        <v>3.696503997159056</v>
+        <v>0.501077547324023</v>
       </c>
       <c r="G3">
-        <v>0.0007568027319227065</v>
+        <v>0.2388217464988998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2333259264183098</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2341337288827958</v>
+        <v>0.1610948963474073</v>
       </c>
       <c r="K3">
-        <v>4.159352355366281</v>
+        <v>2.47737005276818</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.019734553755626</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.717332649486607</v>
+        <v>0.9436740916874413</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2168224256789415</v>
+        <v>0.2141615754244413</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01658523978249615</v>
+        <v>0.2165044737081132</v>
       </c>
       <c r="E4">
-        <v>0.07697127624366829</v>
+        <v>0.1547504850960522</v>
       </c>
       <c r="F4">
-        <v>3.387547758380293</v>
+        <v>0.4893309872732701</v>
       </c>
       <c r="G4">
-        <v>0.0007659871152433041</v>
+        <v>0.2357796184692376</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2360673258996826</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2145260343647379</v>
+        <v>0.1494914293680623</v>
       </c>
       <c r="K4">
-        <v>3.751531838493236</v>
+        <v>2.261846838831616</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.017715811191067</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.484297884969848</v>
+        <v>0.9427171078325216</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2083662058067404</v>
+        <v>0.2058512693612897</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0162437720589208</v>
+        <v>0.2091189673361669</v>
       </c>
       <c r="E5">
-        <v>0.07466225141930138</v>
+        <v>0.1497054302078915</v>
       </c>
       <c r="F5">
-        <v>3.26527856360687</v>
+        <v>0.4848481635997288</v>
       </c>
       <c r="G5">
-        <v>0.0007697650670410084</v>
+        <v>0.2347571804558086</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2373221494880724</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2067331686505298</v>
+        <v>0.1448138277505535</v>
       </c>
       <c r="K5">
-        <v>3.587299925046835</v>
+        <v>2.173958824041648</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.01723407335426</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.392114329202315</v>
+        <v>0.9430735249387965</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2069642213438101</v>
+        <v>0.2044732564978915</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01618757015677219</v>
+        <v>0.2078944833414909</v>
       </c>
       <c r="E6">
-        <v>0.0742816722440125</v>
+        <v>0.1488698967998303</v>
       </c>
       <c r="F6">
-        <v>3.245178708605607</v>
+        <v>0.4841217029496292</v>
       </c>
       <c r="G6">
-        <v>0.0007703947131952203</v>
+        <v>0.2346001820033194</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2375386748199517</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.205450181436909</v>
+        <v>0.1440400701465805</v>
       </c>
       <c r="K6">
-        <v>3.56013618286562</v>
+        <v>2.159360874293668</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.017174331302286</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.3769624072102</v>
+        <v>0.9431767365045403</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2167082341798476</v>
+        <v>0.2140493697724679</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01658059980522997</v>
+        <v>0.2164047426131219</v>
       </c>
       <c r="E7">
-        <v>0.07693994149538597</v>
+        <v>0.1546822966177857</v>
       </c>
       <c r="F7">
-        <v>3.385884843684494</v>
+        <v>0.4892693199915996</v>
       </c>
       <c r="G7">
-        <v>0.0007660379145082441</v>
+        <v>0.2357649655229608</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2360836983582573</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.214420179511194</v>
+        <v>0.1494281449342338</v>
       </c>
       <c r="K7">
-        <v>3.749309545253311</v>
+        <v>2.260661820805296</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.017707949465958</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.483043997231476</v>
+        <v>0.9427189402137799</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2600533555391991</v>
+        <v>0.2566072502306156</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01840383904733689</v>
+        <v>0.2542528306669851</v>
       </c>
       <c r="E8">
-        <v>0.08913454007943145</v>
+        <v>0.1806724260535049</v>
       </c>
       <c r="F8">
-        <v>4.040337250599066</v>
+        <v>0.5146959678288496</v>
       </c>
       <c r="G8">
-        <v>0.0007471026235019534</v>
+        <v>0.2428446736745613</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2308863102070688</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2558270396998665</v>
+        <v>0.1736627617542297</v>
       </c>
       <c r="K8">
-        <v>4.602424438771152</v>
+        <v>2.707202154357816</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.023088455405272</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.976843395933599</v>
+        <v>0.9473504946025173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3466550798801222</v>
+        <v>0.3413863879685834</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02249994840860747</v>
+        <v>0.3297584573343499</v>
       </c>
       <c r="E9">
-        <v>0.1153370165094536</v>
+        <v>0.2330975288622881</v>
       </c>
       <c r="F9">
-        <v>5.492380539032808</v>
+        <v>0.5754104341170603</v>
       </c>
       <c r="G9">
-        <v>0.0007104600113475889</v>
+        <v>0.2645441842698162</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2254640073823069</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.346230443184723</v>
+        <v>0.223130920974981</v>
       </c>
       <c r="K9">
-        <v>6.374675417675888</v>
+        <v>3.582599993177894</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.045403623290923</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>4.074716012346897</v>
+        <v>0.9829139043318236</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4116598480395766</v>
+        <v>0.4047305200966349</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02609510272946247</v>
+        <v>0.3862536733245179</v>
       </c>
       <c r="E10">
-        <v>0.1367667189301542</v>
+        <v>0.2727417649387718</v>
       </c>
       <c r="F10">
-        <v>6.723005843719022</v>
+        <v>0.6277503071203228</v>
       </c>
       <c r="G10">
-        <v>0.0006831369249122263</v>
+        <v>0.2861002076961796</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2247630942042562</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.421620657845267</v>
+        <v>0.2609641613198193</v>
       </c>
       <c r="K10">
-        <v>7.77994232482996</v>
+        <v>4.227179146871777</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.069932462410833</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>5.007526801480282</v>
+        <v>1.027770898974836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4416402194543849</v>
+        <v>0.4338358939353668</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02794645310965205</v>
+        <v>0.4122332527527135</v>
       </c>
       <c r="E11">
-        <v>0.1472325600307194</v>
+        <v>0.2910785570152683</v>
       </c>
       <c r="F11">
-        <v>7.337531253241991</v>
+        <v>0.6535048172847127</v>
       </c>
       <c r="G11">
-        <v>0.0006704009737578604</v>
+        <v>0.2973264748860771</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2252459957434922</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4589180207072872</v>
+        <v>0.2785711605296797</v>
       </c>
       <c r="K11">
-        <v>8.455076633166556</v>
+        <v>4.521112084708136</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.083103239798348</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>5.474108297579733</v>
+        <v>1.052856752704912</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4530628954687188</v>
+        <v>0.4449041071100766</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02868935817412366</v>
+        <v>0.4221162124514706</v>
       </c>
       <c r="E12">
-        <v>0.15132709640611</v>
+        <v>0.2980707202188739</v>
       </c>
       <c r="F12">
-        <v>7.580332265050799</v>
+        <v>0.6635606472587696</v>
       </c>
       <c r="G12">
-        <v>0.000665508660420976</v>
+        <v>0.3017997906053296</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2255521279339234</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4735959210726861</v>
+        <v>0.2853019054870316</v>
       </c>
       <c r="K12">
-        <v>8.717461778192074</v>
+        <v>4.632552865725586</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.088403465206213</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>5.658594723341793</v>
+        <v>1.06308396174316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4505995170962223</v>
+        <v>0.4425182127027938</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02852728499954749</v>
+        <v>0.4199856554515122</v>
       </c>
       <c r="E13">
-        <v>0.1504388774374803</v>
+        <v>0.2965625971266448</v>
       </c>
       <c r="F13">
-        <v>7.527548567518039</v>
+        <v>0.6613810700128795</v>
       </c>
       <c r="G13">
-        <v>0.0006665658912061723</v>
+        <v>0.3008262020752426</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2254805815542227</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4704077460377647</v>
+        <v>0.283849395428021</v>
       </c>
       <c r="K13">
-        <v>8.660622770521059</v>
+        <v>4.608545558798085</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.087247655636702</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5.618481697223729</v>
+        <v>1.060848070657983</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.442578501288466</v>
+        <v>0.4347455182308977</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02800665806946379</v>
+        <v>0.4130453977942921</v>
       </c>
       <c r="E14">
-        <v>0.1475665944135223</v>
+        <v>0.2916528066416006</v>
       </c>
       <c r="F14">
-        <v>7.35728904242373</v>
+        <v>0.6543259004522781</v>
       </c>
       <c r="G14">
-        <v>0.0006700000473680594</v>
+        <v>0.2976899374853872</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2252686632836856</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4601136315204144</v>
+        <v>0.2791235952463467</v>
       </c>
       <c r="K14">
-        <v>8.476517610568919</v>
+        <v>4.53027748796103</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.083532881007486</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>5.489117857710141</v>
+        <v>1.053683239322595</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4376748438884306</v>
+        <v>0.4299907448945817</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02769359361837287</v>
+        <v>0.4088003070478692</v>
       </c>
       <c r="E15">
-        <v>0.1458253295531371</v>
+        <v>0.2886518758946508</v>
       </c>
       <c r="F15">
-        <v>7.254392746985673</v>
+        <v>0.6500446099515429</v>
       </c>
       <c r="G15">
-        <v>0.0006720936270685485</v>
+        <v>0.2957983714592984</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2251551565264691</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.453884658177202</v>
+        <v>0.2762373531095932</v>
       </c>
       <c r="K15">
-        <v>8.364678956385802</v>
+        <v>4.482354596360551</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.081298942845663</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>5.410955468438516</v>
+        <v>1.049391035516351</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4097096802467206</v>
+        <v>0.4028346647549199</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02597929708477187</v>
+        <v>0.3845618800541502</v>
       </c>
       <c r="E16">
-        <v>0.1360994083013125</v>
+        <v>0.2715499116106699</v>
       </c>
       <c r="F16">
-        <v>6.684121185406866</v>
+        <v>0.626108296212756</v>
       </c>
       <c r="G16">
-        <v>0.0006839610823015765</v>
+        <v>0.2853966303589459</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2247483382138498</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4192532342434987</v>
+        <v>0.2598220126492663</v>
       </c>
       <c r="K16">
-        <v>7.736665784138722</v>
+        <v>4.207986961380414</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.069114150289323</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>4.978020501825227</v>
+        <v>1.026230250868679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.392665907424373</v>
+        <v>0.3862529547349567</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02498951602769983</v>
+        <v>0.3697673508391262</v>
       </c>
       <c r="E17">
-        <v>0.1303341628153056</v>
+        <v>0.2611392694007009</v>
       </c>
       <c r="F17">
-        <v>6.349673048713811</v>
+        <v>0.6119384795032587</v>
       </c>
       <c r="G17">
-        <v>0.0006911470873893766</v>
+        <v>0.2793916562262524</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2247096214988957</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3988529707027624</v>
+        <v>0.2498576526431719</v>
       </c>
       <c r="K17">
-        <v>7.361560131197535</v>
+        <v>4.039875655758237</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.062170374592256</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>4.724320760847661</v>
+        <v>1.013258349418265</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3829005529900087</v>
+        <v>0.3767425571029008</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02443972384594728</v>
+        <v>0.3612839383687287</v>
       </c>
       <c r="E18">
-        <v>0.1270835795694047</v>
+        <v>0.2551794945193819</v>
       </c>
       <c r="F18">
-        <v>6.162291287187315</v>
+        <v>0.6039699352319943</v>
       </c>
       <c r="G18">
-        <v>0.0006952533208366179</v>
+        <v>0.2760702980276406</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2247623082984873</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3873927401507586</v>
+        <v>0.2441633281331548</v>
       </c>
       <c r="K18">
-        <v>7.149068964012258</v>
+        <v>3.943247262886757</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.058364370472972</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>4.582246921992379</v>
+        <v>1.006234284585886</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3796003613885404</v>
+        <v>0.3735269844812024</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02425665154205303</v>
+        <v>0.3584159256273693</v>
       </c>
       <c r="E19">
-        <v>0.1259934976624528</v>
+        <v>0.2531663075361195</v>
       </c>
       <c r="F19">
-        <v>6.099645699050086</v>
+        <v>0.6013024161157006</v>
       </c>
       <c r="G19">
-        <v>0.000696639643684234</v>
+        <v>0.2749679811383956</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2247927866081199</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3835563141530116</v>
+        <v>0.2422414812591995</v>
       </c>
       <c r="K19">
-        <v>7.077642649893306</v>
+        <v>3.910540726940894</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.057107323226177</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>4.534759501166519</v>
+        <v>1.003929509685477</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3944762647106757</v>
+        <v>0.3880152804591148</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0250927947101367</v>
+        <v>0.3713395278217746</v>
       </c>
       <c r="E20">
-        <v>0.1309409330590334</v>
+        <v>0.2622445518909302</v>
       </c>
       <c r="F20">
-        <v>6.384745795897544</v>
+        <v>0.6134279248755163</v>
       </c>
       <c r="G20">
-        <v>0.0006903850756329876</v>
+        <v>0.2800170521538305</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2247059292894988</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4009955404638106</v>
+        <v>0.2509145110086592</v>
       </c>
       <c r="K20">
-        <v>7.401143554262006</v>
+        <v>4.057764458923657</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.06288994701535</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>4.75091846001294</v>
+        <v>1.01459361491807</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4449324766790994</v>
+        <v>0.4370272401257012</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02815833785501232</v>
+        <v>0.4150826565268915</v>
       </c>
       <c r="E21">
-        <v>0.1484064199405211</v>
+        <v>0.293093576050822</v>
       </c>
       <c r="F21">
-        <v>7.4070031517752</v>
+        <v>0.6563897519551247</v>
       </c>
       <c r="G21">
-        <v>0.0006689934812756123</v>
+        <v>0.2986049556810855</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2253274970337316</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4631210498690734</v>
+        <v>0.2805099050120816</v>
       </c>
       <c r="K21">
-        <v>8.530396175155005</v>
+        <v>4.553262787411768</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.084615312651408</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>5.526886866445494</v>
+        <v>1.055767518253305</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4783220085265043</v>
+        <v>0.4693337688739234</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03041393047496621</v>
+        <v>0.4439364474227148</v>
       </c>
       <c r="E22">
-        <v>0.1606070085769922</v>
+        <v>0.3135399577583868</v>
       </c>
       <c r="F22">
-        <v>8.135554835122605</v>
+        <v>0.6862469036887262</v>
       </c>
       <c r="G22">
-        <v>0.000654589407006053</v>
+        <v>0.3120574438130603</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2264563359404548</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5070427107712447</v>
+        <v>0.3002247741212756</v>
       </c>
       <c r="K22">
-        <v>9.308776310273032</v>
+        <v>4.877902134126259</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.100649910854031</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>6.080757916135042</v>
+        <v>1.086947055576303</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4604593177069489</v>
+        <v>0.4520643392794454</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02918232889031458</v>
+        <v>0.4285106840997059</v>
       </c>
       <c r="E23">
-        <v>0.154011584681534</v>
+        <v>0.3025995621666837</v>
       </c>
       <c r="F23">
-        <v>7.740243339352844</v>
+        <v>0.6701406004449382</v>
       </c>
       <c r="G23">
-        <v>0.0006623265874844415</v>
+        <v>0.3047520089240123</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.225784952007146</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4832455673440705</v>
+        <v>0.2896662705300912</v>
       </c>
       <c r="K23">
-        <v>8.888985569147536</v>
+        <v>4.704551100075435</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.09191549723414</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>5.780141679162739</v>
+        <v>1.069896154551827</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3936576991331577</v>
+        <v>0.3872184628266524</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02504604322768245</v>
+        <v>0.3706286779485737</v>
       </c>
       <c r="E24">
-        <v>0.1306664150945736</v>
+        <v>0.2617447747994675</v>
       </c>
       <c r="F24">
-        <v>6.368874311802415</v>
+        <v>0.6127539943480329</v>
       </c>
       <c r="G24">
-        <v>0.000690729657601949</v>
+        <v>0.2797339040184212</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2247073656953873</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4000260581198489</v>
+        <v>0.2504365989206434</v>
       </c>
       <c r="K24">
-        <v>7.383238150561453</v>
+        <v>4.049676867918947</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.062564050500939</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4.738881984009623</v>
+        <v>1.013988594744475</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3230172961482793</v>
+        <v>0.318284735384708</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02131266005838239</v>
+        <v>0.309170947988477</v>
       </c>
       <c r="E25">
-        <v>0.1079332794511245</v>
+        <v>0.2187353065788002</v>
       </c>
       <c r="F25">
-        <v>5.076055345400704</v>
+        <v>0.5577125284132265</v>
       </c>
       <c r="G25">
-        <v>0.0007203831132417435</v>
+        <v>0.2577526716439351</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2263829344415953</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3204881386273115</v>
+        <v>0.2095101468763261</v>
       </c>
       <c r="K25">
-        <v>5.880798490319904</v>
+        <v>3.345653871249681</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.038014362013669</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>3.759623596977264</v>
+        <v>0.9702008432799971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2682190561509685</v>
+        <v>0.142398651482722</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2645864840509944</v>
+        <v>0.2510271085944709</v>
       </c>
       <c r="E2">
-        <v>0.1878048295956631</v>
+        <v>0.1815433724534969</v>
       </c>
       <c r="F2">
-        <v>0.5222806857120972</v>
+        <v>1.019423977769264</v>
       </c>
       <c r="G2">
-        <v>0.2452621826409001</v>
+        <v>0.4819930937647854</v>
       </c>
       <c r="H2">
-        <v>0.2297877498172056</v>
+        <v>0.6378099054947128</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1803500915316221</v>
+        <v>0.1770572214365203</v>
       </c>
       <c r="K2">
-        <v>2.828119629783458</v>
+        <v>0.9074100319281229</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9503070336014332</v>
+        <v>2.200317181780179</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2346360089690194</v>
+        <v>0.1329491466732691</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.23470787929989</v>
+        <v>0.2435338944786736</v>
       </c>
       <c r="E3">
-        <v>0.167223676320873</v>
+        <v>0.1768847561558573</v>
       </c>
       <c r="F3">
-        <v>0.501077547324023</v>
+        <v>1.024171066059395</v>
       </c>
       <c r="G3">
-        <v>0.2388217464988998</v>
+        <v>0.4867705571386765</v>
       </c>
       <c r="H3">
-        <v>0.2333259264183098</v>
+        <v>0.6442834492590208</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1610948963474073</v>
+        <v>0.1731240366063602</v>
       </c>
       <c r="K3">
-        <v>2.47737005276818</v>
+        <v>0.7923363258557288</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9436740916874413</v>
+        <v>2.223724351682023</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2141615754244413</v>
+        <v>0.1272161570857122</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2165044737081132</v>
+        <v>0.2390194271138881</v>
       </c>
       <c r="E4">
-        <v>0.1547504850960522</v>
+        <v>0.1741097564276686</v>
       </c>
       <c r="F4">
-        <v>0.4893309872732701</v>
+        <v>1.027759155951287</v>
       </c>
       <c r="G4">
-        <v>0.2357796184692376</v>
+        <v>0.4901252131498453</v>
       </c>
       <c r="H4">
-        <v>0.2360673258996826</v>
+        <v>0.6485948815336116</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1494914293680623</v>
+        <v>0.1708118169947141</v>
       </c>
       <c r="K4">
-        <v>2.261846838831616</v>
+        <v>0.7213923435998879</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9427171078325216</v>
+        <v>2.239684896376389</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2058512693612897</v>
+        <v>0.1248974479733818</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2091189673361669</v>
+        <v>0.2372016214916357</v>
       </c>
       <c r="E5">
-        <v>0.1497054302078915</v>
+        <v>0.1730004639147644</v>
       </c>
       <c r="F5">
-        <v>0.4848481635997288</v>
+        <v>1.029390591821397</v>
       </c>
       <c r="G5">
-        <v>0.2347571804558086</v>
+        <v>0.4915980061757423</v>
       </c>
       <c r="H5">
-        <v>0.2373221494880724</v>
+        <v>0.6504364781357879</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1448138277505535</v>
+        <v>0.1698954314000289</v>
       </c>
       <c r="K5">
-        <v>2.173958824041648</v>
+        <v>0.692411714447843</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9430735249387965</v>
+        <v>2.246587967321375</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2044732564978915</v>
+        <v>0.1245134918750779</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2078944833414909</v>
+        <v>0.2369011019998339</v>
       </c>
       <c r="E6">
-        <v>0.1488698967998303</v>
+        <v>0.1728175697768606</v>
       </c>
       <c r="F6">
-        <v>0.4841217029496292</v>
+        <v>1.029671711594119</v>
       </c>
       <c r="G6">
-        <v>0.2346001820033194</v>
+        <v>0.4918489434144249</v>
       </c>
       <c r="H6">
-        <v>0.2375386748199517</v>
+        <v>0.6507473866652802</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1440400701465805</v>
+        <v>0.1697448289001926</v>
       </c>
       <c r="K6">
-        <v>2.159360874293668</v>
+        <v>0.6875953144851508</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9431767365045403</v>
+        <v>2.247758304771253</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2140493697724679</v>
+        <v>0.1271848149585537</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2164047426131219</v>
+        <v>0.2389948227732788</v>
       </c>
       <c r="E7">
-        <v>0.1546822966177857</v>
+        <v>0.1740947088093456</v>
       </c>
       <c r="F7">
-        <v>0.4892693199915996</v>
+        <v>1.027780472820766</v>
       </c>
       <c r="G7">
-        <v>0.2357649655229608</v>
+        <v>0.4901446478526736</v>
       </c>
       <c r="H7">
-        <v>0.2360836983582573</v>
+        <v>0.6486193751942793</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1494281449342338</v>
+        <v>0.1707993535542727</v>
       </c>
       <c r="K7">
-        <v>2.260661820805296</v>
+        <v>0.7210017828664661</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9427189402137799</v>
+        <v>2.239776378536433</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2566072502306156</v>
+        <v>0.1391262300532361</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2542528306669851</v>
+        <v>0.2484256048038702</v>
       </c>
       <c r="E8">
-        <v>0.1806724260535049</v>
+        <v>0.1799193922654041</v>
       </c>
       <c r="F8">
-        <v>0.5146959678288496</v>
+        <v>1.020920979770231</v>
       </c>
       <c r="G8">
-        <v>0.2428446736745613</v>
+        <v>0.4835528137282381</v>
       </c>
       <c r="H8">
-        <v>0.2308863102070688</v>
+        <v>0.639972111536288</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1736627617542297</v>
+        <v>0.1756797393072063</v>
       </c>
       <c r="K8">
-        <v>2.707202154357816</v>
+        <v>0.8677936710947165</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9473504946025173</v>
+        <v>2.208058046099083</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3413863879685834</v>
+        <v>0.1630850301430655</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3297584573343499</v>
+        <v>0.2675993198005955</v>
       </c>
       <c r="E9">
-        <v>0.2330975288622881</v>
+        <v>0.1920171548577443</v>
       </c>
       <c r="F9">
-        <v>0.5754104341170603</v>
+        <v>1.012816052617943</v>
       </c>
       <c r="G9">
-        <v>0.2645441842698162</v>
+        <v>0.4739776312218069</v>
       </c>
       <c r="H9">
-        <v>0.2254640073823069</v>
+        <v>0.6256860668090738</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.223130920974981</v>
+        <v>0.1860654603550813</v>
       </c>
       <c r="K9">
-        <v>3.582599993177894</v>
+        <v>1.153286257948821</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9829139043318236</v>
+        <v>2.158481067458126</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4047305200966349</v>
+        <v>0.1810115073540857</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3862536733245179</v>
+        <v>0.2820949850980128</v>
       </c>
       <c r="E10">
-        <v>0.2727417649387718</v>
+        <v>0.2013155274797072</v>
       </c>
       <c r="F10">
-        <v>0.6277503071203228</v>
+        <v>1.010127270768429</v>
       </c>
       <c r="G10">
-        <v>0.2861002076961796</v>
+        <v>0.4689982852779551</v>
       </c>
       <c r="H10">
-        <v>0.2247630942042562</v>
+        <v>0.6168186502912434</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2609641613198193</v>
+        <v>0.1941937512027039</v>
       </c>
       <c r="K10">
-        <v>4.227179146871777</v>
+        <v>1.361510075855449</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.027770898974836</v>
+        <v>2.129778912366234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4338358939353668</v>
+        <v>0.1892358470044684</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4122332527527135</v>
+        <v>0.2887770655859185</v>
       </c>
       <c r="E11">
-        <v>0.2910785570152683</v>
+        <v>0.2056343648307362</v>
       </c>
       <c r="F11">
-        <v>0.6535048172847127</v>
+        <v>1.009614717944359</v>
       </c>
       <c r="G11">
-        <v>0.2973264748860771</v>
+        <v>0.4671820750247235</v>
       </c>
       <c r="H11">
-        <v>0.2252459957434922</v>
+        <v>0.6131382902108555</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2785711605296797</v>
+        <v>0.1979998850095228</v>
       </c>
       <c r="K11">
-        <v>4.521112084708136</v>
+        <v>1.455888137311092</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.052856752704912</v>
+        <v>2.118404173328571</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4449041071100766</v>
+        <v>0.1923600379454484</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4221162124514706</v>
+        <v>0.291319909301734</v>
       </c>
       <c r="E12">
-        <v>0.2980707202188739</v>
+        <v>0.2072825385947041</v>
       </c>
       <c r="F12">
-        <v>0.6635606472587696</v>
+        <v>1.009522904372453</v>
       </c>
       <c r="G12">
-        <v>0.3017997906053296</v>
+        <v>0.4665590887259441</v>
       </c>
       <c r="H12">
-        <v>0.2255521279339234</v>
+        <v>0.6117954704876638</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2853019054870316</v>
+        <v>0.1994567720959424</v>
       </c>
       <c r="K12">
-        <v>4.632552865725586</v>
+        <v>1.491575363373897</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.06308396174316</v>
+        <v>2.114339198350109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4425182127027938</v>
+        <v>0.191686754024289</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4199856554515122</v>
+        <v>0.2907717096776992</v>
       </c>
       <c r="E13">
-        <v>0.2965625971266448</v>
+        <v>0.2069270100871137</v>
       </c>
       <c r="F13">
-        <v>0.6613810700128795</v>
+        <v>1.009538127645996</v>
       </c>
       <c r="G13">
-        <v>0.3008262020752426</v>
+        <v>0.4666903756994145</v>
       </c>
       <c r="H13">
-        <v>0.2254805815542227</v>
+        <v>0.6120824086710854</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.283849395428021</v>
+        <v>0.1991423124927678</v>
       </c>
       <c r="K13">
-        <v>4.608545558798085</v>
+        <v>1.483891815330651</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.060848070657983</v>
+        <v>2.11520387475872</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4347455182308977</v>
+        <v>0.1894926804650936</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4130453977942921</v>
+        <v>0.2889860175654348</v>
       </c>
       <c r="E14">
-        <v>0.2916528066416006</v>
+        <v>0.2057697064687005</v>
       </c>
       <c r="F14">
-        <v>0.6543259004522781</v>
+        <v>1.009605114009823</v>
       </c>
       <c r="G14">
-        <v>0.2976899374853872</v>
+        <v>0.4671295221682783</v>
       </c>
       <c r="H14">
-        <v>0.2252686632836856</v>
+        <v>0.6130267963224156</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2791235952463467</v>
+        <v>0.1981194317210253</v>
       </c>
       <c r="K14">
-        <v>4.53027748796103</v>
+        <v>1.458825195695908</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.053683239322595</v>
+        <v>2.118064884531151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4299907448945817</v>
+        <v>0.1881500194881056</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4088003070478692</v>
+        <v>0.2878938507573992</v>
       </c>
       <c r="E15">
-        <v>0.2886518758946508</v>
+        <v>0.2050624795570144</v>
       </c>
       <c r="F15">
-        <v>0.6500446099515429</v>
+        <v>1.00965946770711</v>
       </c>
       <c r="G15">
-        <v>0.2957983714592984</v>
+        <v>0.4674069539058223</v>
       </c>
       <c r="H15">
-        <v>0.2251551565264691</v>
+        <v>0.613611884266291</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2762373531095932</v>
+        <v>0.1974949169711522</v>
       </c>
       <c r="K15">
-        <v>4.482354596360551</v>
+        <v>1.443464368897367</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.049391035516351</v>
+        <v>2.119848917571716</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4028346647549199</v>
+        <v>0.1804754103396959</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3845618800541502</v>
+        <v>0.2816600511684442</v>
       </c>
       <c r="E16">
-        <v>0.2715499116106699</v>
+        <v>0.2010350655569795</v>
       </c>
       <c r="F16">
-        <v>0.626108296212756</v>
+        <v>1.010175074506847</v>
       </c>
       <c r="G16">
-        <v>0.2853966303589459</v>
+        <v>0.4691260310547776</v>
       </c>
       <c r="H16">
-        <v>0.2247483382138498</v>
+        <v>0.6170662852865689</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2598220126492663</v>
+        <v>0.1939471936644992</v>
       </c>
       <c r="K16">
-        <v>4.207986961380414</v>
+        <v>1.355335134382472</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.026230250868679</v>
+        <v>2.130556169301698</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3862529547349567</v>
+        <v>0.1757849566111247</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3697673508391262</v>
+        <v>0.2778582245032197</v>
       </c>
       <c r="E17">
-        <v>0.2611392694007009</v>
+        <v>0.1985871137473296</v>
       </c>
       <c r="F17">
-        <v>0.6119384795032587</v>
+        <v>1.010673450961043</v>
       </c>
       <c r="G17">
-        <v>0.2793916562262524</v>
+        <v>0.470295764563275</v>
       </c>
       <c r="H17">
-        <v>0.2247096214988957</v>
+        <v>0.6192759981586278</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2498576526431719</v>
+        <v>0.1917985641451168</v>
       </c>
       <c r="K17">
-        <v>4.039875655758237</v>
+        <v>1.301181004883006</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.013258349418265</v>
+        <v>2.137555897094003</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3767425571029008</v>
+        <v>0.1730936837499826</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3612839383687287</v>
+        <v>0.275679800227195</v>
       </c>
       <c r="E18">
-        <v>0.2551794945193819</v>
+        <v>0.1971874941635576</v>
       </c>
       <c r="F18">
-        <v>0.6039699352319943</v>
+        <v>1.0110269820577</v>
       </c>
       <c r="G18">
-        <v>0.2760702980276406</v>
+        <v>0.4710108057412228</v>
       </c>
       <c r="H18">
-        <v>0.2247623082984873</v>
+        <v>0.6205802356056012</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2441633281331548</v>
+        <v>0.1905729461980172</v>
       </c>
       <c r="K18">
-        <v>3.943247262886757</v>
+        <v>1.270000735564963</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.006234284585886</v>
+        <v>2.141740243752096</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3735269844812024</v>
+        <v>0.1721835958490772</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3584159256273693</v>
+        <v>0.274943651160612</v>
       </c>
       <c r="E19">
-        <v>0.2531663075361195</v>
+        <v>0.1967150479634583</v>
       </c>
       <c r="F19">
-        <v>0.6013024161157006</v>
+        <v>1.011158165002861</v>
       </c>
       <c r="G19">
-        <v>0.2749679811383956</v>
+        <v>0.471260154699479</v>
       </c>
       <c r="H19">
-        <v>0.2247927866081199</v>
+        <v>0.6210275412580586</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2422414812591995</v>
+        <v>0.1901597283940504</v>
       </c>
       <c r="K19">
-        <v>3.910540726940894</v>
+        <v>1.259438162028573</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.003929509685477</v>
+        <v>2.143184161912259</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3880152804591148</v>
+        <v>0.1762835866173162</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3713395278217746</v>
+        <v>0.2782620790409283</v>
       </c>
       <c r="E20">
-        <v>0.2622445518909302</v>
+        <v>0.1988468358488191</v>
       </c>
       <c r="F20">
-        <v>0.6134279248755163</v>
+        <v>1.010613475587938</v>
       </c>
       <c r="G20">
-        <v>0.2800170521538305</v>
+        <v>0.4701668710154152</v>
       </c>
       <c r="H20">
-        <v>0.2247059292894988</v>
+        <v>0.6190373270551319</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2509145110086592</v>
+        <v>0.1920262321576445</v>
       </c>
       <c r="K20">
-        <v>4.057764458923657</v>
+        <v>1.306949158005068</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.01459361491807</v>
+        <v>2.136794378087103</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4370272401257012</v>
+        <v>0.1901368682050872</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4150826565268915</v>
+        <v>0.2895101810582048</v>
       </c>
       <c r="E21">
-        <v>0.293093576050822</v>
+        <v>0.2061092898233099</v>
       </c>
       <c r="F21">
-        <v>0.6563897519551247</v>
+        <v>1.009582661898705</v>
       </c>
       <c r="G21">
-        <v>0.2986049556810855</v>
+        <v>0.4669987745437822</v>
       </c>
       <c r="H21">
-        <v>0.2253274970337316</v>
+        <v>0.6127480264576235</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2805099050120816</v>
+        <v>0.1984194537395894</v>
       </c>
       <c r="K21">
-        <v>4.553262787411768</v>
+        <v>1.466189290264253</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.055767518253305</v>
+        <v>2.117217954037557</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4693337688739234</v>
+        <v>0.1992478962401663</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4439364474227148</v>
+        <v>0.2969341634379816</v>
       </c>
       <c r="E22">
-        <v>0.3135399577583868</v>
+        <v>0.2109298552939052</v>
       </c>
       <c r="F22">
-        <v>0.6862469036887262</v>
+        <v>1.009505170202971</v>
       </c>
       <c r="G22">
-        <v>0.3120574438130603</v>
+        <v>0.4653058881305014</v>
       </c>
       <c r="H22">
-        <v>0.2264563359404548</v>
+        <v>0.6089340248056487</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3002247741212756</v>
+        <v>0.2026886358752193</v>
       </c>
       <c r="K22">
-        <v>4.877902134126259</v>
+        <v>1.569959565145552</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.086947055576303</v>
+        <v>2.105836713134664</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4520643392794454</v>
+        <v>0.1943800036805925</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4285106840997059</v>
+        <v>0.2929652450908975</v>
       </c>
       <c r="E23">
-        <v>0.3025995621666837</v>
+        <v>0.2083502684457414</v>
       </c>
       <c r="F23">
-        <v>0.6701406004449382</v>
+        <v>1.009491944462567</v>
       </c>
       <c r="G23">
-        <v>0.3047520089240123</v>
+        <v>0.4661747867035615</v>
       </c>
       <c r="H23">
-        <v>0.225784952007146</v>
+        <v>0.6109424989571437</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2896662705300912</v>
+        <v>0.200401787721546</v>
       </c>
       <c r="K23">
-        <v>4.704551100075435</v>
+        <v>1.514603815202804</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.069896154551827</v>
+        <v>2.111781627428286</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3872184628266524</v>
+        <v>0.1760581393712783</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3706286779485737</v>
+        <v>0.2780794736656986</v>
       </c>
       <c r="E24">
-        <v>0.2617447747994675</v>
+        <v>0.1987293913715718</v>
       </c>
       <c r="F24">
-        <v>0.6127539943480329</v>
+        <v>1.010640381736643</v>
       </c>
       <c r="G24">
-        <v>0.2797339040184212</v>
+        <v>0.4702250112773569</v>
       </c>
       <c r="H24">
-        <v>0.2247073656953873</v>
+        <v>0.6191451248395978</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2504365989206434</v>
+        <v>0.1919232733657026</v>
       </c>
       <c r="K24">
-        <v>4.049676867918947</v>
+        <v>1.304341520151809</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.013988594744475</v>
+        <v>2.137138162135713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.318284735384708</v>
+        <v>0.1565461964429744</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.309170947988477</v>
+        <v>0.2623401255290787</v>
       </c>
       <c r="E25">
-        <v>0.2187353065788002</v>
+        <v>0.1886722399632603</v>
       </c>
       <c r="F25">
-        <v>0.5577125284132265</v>
+        <v>1.014435588393589</v>
       </c>
       <c r="G25">
-        <v>0.2577526716439351</v>
+        <v>0.4762078911293202</v>
       </c>
       <c r="H25">
-        <v>0.2263829344415953</v>
+        <v>0.629264838606133</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2095101468763261</v>
+        <v>0.1831684726321328</v>
       </c>
       <c r="K25">
-        <v>3.345653871249681</v>
+        <v>1.076315110838209</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9702008432799971</v>
+        <v>2.170538818813213</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.142398651482722</v>
+        <v>0.2682190561509685</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2510271085944709</v>
+        <v>0.2645864840509518</v>
       </c>
       <c r="E2">
-        <v>0.1815433724534969</v>
+        <v>0.187804829595656</v>
       </c>
       <c r="F2">
-        <v>1.019423977769264</v>
+        <v>0.5222806857120901</v>
       </c>
       <c r="G2">
-        <v>0.4819930937647854</v>
+        <v>0.2452621826408361</v>
       </c>
       <c r="H2">
-        <v>0.6378099054947128</v>
+        <v>0.2297877498173193</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1770572214365203</v>
+        <v>0.1803500915317571</v>
       </c>
       <c r="K2">
-        <v>0.9074100319281229</v>
+        <v>2.828119629783345</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.200317181780179</v>
+        <v>0.9503070336014048</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329491466732691</v>
+        <v>0.2346360089690052</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2435338944786736</v>
+        <v>0.2347078792999326</v>
       </c>
       <c r="E3">
-        <v>0.1768847561558573</v>
+        <v>0.1672236763208588</v>
       </c>
       <c r="F3">
-        <v>1.024171066059395</v>
+        <v>0.5010775473240443</v>
       </c>
       <c r="G3">
-        <v>0.4867705571386765</v>
+        <v>0.2388217464989069</v>
       </c>
       <c r="H3">
-        <v>0.6442834492590208</v>
+        <v>0.2333259264181891</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1731240366063602</v>
+        <v>0.1610948963473433</v>
       </c>
       <c r="K3">
-        <v>0.7923363258557288</v>
+        <v>2.477370052768237</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.223724351682023</v>
+        <v>0.9436740916873561</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272161570857122</v>
+        <v>0.2141615754243134</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2390194271138881</v>
+        <v>0.2165044737081274</v>
       </c>
       <c r="E4">
-        <v>0.1741097564276686</v>
+        <v>0.1547504850960806</v>
       </c>
       <c r="F4">
-        <v>1.027759155951287</v>
+        <v>0.4893309872732345</v>
       </c>
       <c r="G4">
-        <v>0.4901252131498453</v>
+        <v>0.2357796184692305</v>
       </c>
       <c r="H4">
-        <v>0.6485948815336116</v>
+        <v>0.2360673258996826</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1708118169947141</v>
+        <v>0.1494914293681546</v>
       </c>
       <c r="K4">
-        <v>0.7213923435998879</v>
+        <v>2.261846838831701</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.239684896376389</v>
+        <v>0.942717107832479</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248974479733818</v>
+        <v>0.205851269361446</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2372016214916357</v>
+        <v>0.2091189673362948</v>
       </c>
       <c r="E5">
-        <v>0.1730004639147644</v>
+        <v>0.1497054302078666</v>
       </c>
       <c r="F5">
-        <v>1.029390591821397</v>
+        <v>0.4848481635997217</v>
       </c>
       <c r="G5">
-        <v>0.4915980061757423</v>
+        <v>0.2347571804558655</v>
       </c>
       <c r="H5">
-        <v>0.6504364781357879</v>
+        <v>0.2373221494879587</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1698954314000289</v>
+        <v>0.1448138277505819</v>
       </c>
       <c r="K5">
-        <v>0.692411714447843</v>
+        <v>2.173958824041506</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.246587967321375</v>
+        <v>0.9430735249387681</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245134918750779</v>
+        <v>0.2044732564977636</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2369011019998339</v>
+        <v>0.2078944833415477</v>
       </c>
       <c r="E6">
-        <v>0.1728175697768606</v>
+        <v>0.1488698967998161</v>
       </c>
       <c r="F6">
-        <v>1.029671711594119</v>
+        <v>0.4841217029496079</v>
       </c>
       <c r="G6">
-        <v>0.4918489434144249</v>
+        <v>0.2346001820033194</v>
       </c>
       <c r="H6">
-        <v>0.6507473866652802</v>
+        <v>0.2375386748199517</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1697448289001926</v>
+        <v>0.1440400701465521</v>
       </c>
       <c r="K6">
-        <v>0.6875953144851508</v>
+        <v>2.15936087429364</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.247758304771253</v>
+        <v>0.9431767365044834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271848149585537</v>
+        <v>0.2140493697724821</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2389948227732788</v>
+        <v>0.2164047426132925</v>
       </c>
       <c r="E7">
-        <v>0.1740947088093456</v>
+        <v>0.1546822966177857</v>
       </c>
       <c r="F7">
-        <v>1.027780472820766</v>
+        <v>0.4892693199915996</v>
       </c>
       <c r="G7">
-        <v>0.4901446478526736</v>
+        <v>0.2357649655228471</v>
       </c>
       <c r="H7">
-        <v>0.6486193751942793</v>
+        <v>0.2360836983581436</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1707993535542727</v>
+        <v>0.1494281449342338</v>
       </c>
       <c r="K7">
-        <v>0.7210017828664661</v>
+        <v>2.260661820805325</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.239776378536433</v>
+        <v>0.9427189402137799</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391262300532361</v>
+        <v>0.2566072502306014</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2484256048038702</v>
+        <v>0.2542528306668999</v>
       </c>
       <c r="E8">
-        <v>0.1799193922654041</v>
+        <v>0.1806724260534764</v>
       </c>
       <c r="F8">
-        <v>1.020920979770231</v>
+        <v>0.5146959678288425</v>
       </c>
       <c r="G8">
-        <v>0.4835528137282381</v>
+        <v>0.2428446736745613</v>
       </c>
       <c r="H8">
-        <v>0.639972111536288</v>
+        <v>0.230886310207076</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1756797393072063</v>
+        <v>0.1736627617543149</v>
       </c>
       <c r="K8">
-        <v>0.8677936710947165</v>
+        <v>2.707202154357873</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.208058046099083</v>
+        <v>0.9473504946025173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1630850301430655</v>
+        <v>0.3413863879686971</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2675993198005955</v>
+        <v>0.3297584573342505</v>
       </c>
       <c r="E9">
-        <v>0.1920171548577443</v>
+        <v>0.2330975288622881</v>
       </c>
       <c r="F9">
-        <v>1.012816052617943</v>
+        <v>0.5754104341170603</v>
       </c>
       <c r="G9">
-        <v>0.4739776312218069</v>
+        <v>0.264544184269937</v>
       </c>
       <c r="H9">
-        <v>0.6256860668090738</v>
+        <v>0.2254640073823069</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1860654603550813</v>
+        <v>0.2231309209749384</v>
       </c>
       <c r="K9">
-        <v>1.153286257948821</v>
+        <v>3.582599993177951</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.158481067458126</v>
+        <v>0.9829139043318946</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1810115073540857</v>
+        <v>0.4047305200966349</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2820949850980128</v>
+        <v>0.3862536733246031</v>
       </c>
       <c r="E10">
-        <v>0.2013155274797072</v>
+        <v>0.2727417649387576</v>
       </c>
       <c r="F10">
-        <v>1.010127270768429</v>
+        <v>0.627750307120337</v>
       </c>
       <c r="G10">
-        <v>0.4689982852779551</v>
+        <v>0.2861002076961583</v>
       </c>
       <c r="H10">
-        <v>0.6168186502912434</v>
+        <v>0.2247630942041425</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1941937512027039</v>
+        <v>0.2609641613197198</v>
       </c>
       <c r="K10">
-        <v>1.361510075855449</v>
+        <v>4.22717914687172</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.129778912366234</v>
+        <v>1.027770898974836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1892358470044684</v>
+        <v>0.4338358939356937</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2887770655859185</v>
+        <v>0.4122332527528272</v>
       </c>
       <c r="E11">
-        <v>0.2056343648307362</v>
+        <v>0.2910785570152541</v>
       </c>
       <c r="F11">
-        <v>1.009614717944359</v>
+        <v>0.6535048172847127</v>
       </c>
       <c r="G11">
-        <v>0.4671820750247235</v>
+        <v>0.2973264748860771</v>
       </c>
       <c r="H11">
-        <v>0.6131382902108555</v>
+        <v>0.2252459957434922</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1979998850095228</v>
+        <v>0.2785711605297365</v>
       </c>
       <c r="K11">
-        <v>1.455888137311092</v>
+        <v>4.521112084708136</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.118404173328571</v>
+        <v>1.052856752704912</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1923600379454484</v>
+        <v>0.4449041071104318</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.291319909301734</v>
+        <v>0.4221162124514706</v>
       </c>
       <c r="E12">
-        <v>0.2072825385947041</v>
+        <v>0.2980707202188881</v>
       </c>
       <c r="F12">
-        <v>1.009522904372453</v>
+        <v>0.6635606472587696</v>
       </c>
       <c r="G12">
-        <v>0.4665590887259441</v>
+        <v>0.3017997906054006</v>
       </c>
       <c r="H12">
-        <v>0.6117954704876638</v>
+        <v>0.2255521279339092</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1994567720959424</v>
+        <v>0.2853019054870032</v>
       </c>
       <c r="K12">
-        <v>1.491575363373897</v>
+        <v>4.632552865725472</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.114339198350109</v>
+        <v>1.06308396174316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.191686754024289</v>
+        <v>0.4425182127027654</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2907717096776992</v>
+        <v>0.4199856554515975</v>
       </c>
       <c r="E13">
-        <v>0.2069270100871137</v>
+        <v>0.2965625971266093</v>
       </c>
       <c r="F13">
-        <v>1.009538127645996</v>
+        <v>0.6613810700128795</v>
       </c>
       <c r="G13">
-        <v>0.4666903756994145</v>
+        <v>0.3008262020751289</v>
       </c>
       <c r="H13">
-        <v>0.6120824086710854</v>
+        <v>0.2254805815542227</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1991423124927678</v>
+        <v>0.2838493954279642</v>
       </c>
       <c r="K13">
-        <v>1.483891815330651</v>
+        <v>4.608545558798028</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.11520387475872</v>
+        <v>1.060848070657954</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1894926804650936</v>
+        <v>0.4347455182312387</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2889860175654348</v>
+        <v>0.4130453977941784</v>
       </c>
       <c r="E14">
-        <v>0.2057697064687005</v>
+        <v>0.2916528066416006</v>
       </c>
       <c r="F14">
-        <v>1.009605114009823</v>
+        <v>0.6543259004522852</v>
       </c>
       <c r="G14">
-        <v>0.4671295221682783</v>
+        <v>0.2976899374853019</v>
       </c>
       <c r="H14">
-        <v>0.6130267963224156</v>
+        <v>0.2252686632836856</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1981194317210253</v>
+        <v>0.2791235952463609</v>
       </c>
       <c r="K14">
-        <v>1.458825195695908</v>
+        <v>4.530277487960973</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.118064884531151</v>
+        <v>1.053683239322595</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1881500194881056</v>
+        <v>0.4299907448944253</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2878938507573992</v>
+        <v>0.4088003070475565</v>
       </c>
       <c r="E15">
-        <v>0.2050624795570144</v>
+        <v>0.288651875894665</v>
       </c>
       <c r="F15">
-        <v>1.00965946770711</v>
+        <v>0.6500446099515429</v>
       </c>
       <c r="G15">
-        <v>0.4674069539058223</v>
+        <v>0.2957983714593269</v>
       </c>
       <c r="H15">
-        <v>0.613611884266291</v>
+        <v>0.2251551565264691</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1974949169711522</v>
+        <v>0.2762373531094511</v>
       </c>
       <c r="K15">
-        <v>1.443464368897367</v>
+        <v>4.482354596360494</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.119848917571716</v>
+        <v>1.049391035516322</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1804754103396959</v>
+        <v>0.4028346647549057</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2816600511684442</v>
+        <v>0.3845618800541502</v>
       </c>
       <c r="E16">
-        <v>0.2010350655569795</v>
+        <v>0.2715499116106486</v>
       </c>
       <c r="F16">
-        <v>1.010175074506847</v>
+        <v>0.626108296212756</v>
       </c>
       <c r="G16">
-        <v>0.4691260310547776</v>
+        <v>0.2853966303589601</v>
       </c>
       <c r="H16">
-        <v>0.6170662852865689</v>
+        <v>0.2247483382138498</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1939471936644992</v>
+        <v>0.2598220126491668</v>
       </c>
       <c r="K16">
-        <v>1.355335134382472</v>
+        <v>4.20798696138047</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.130556169301698</v>
+        <v>1.026230250868707</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1757849566111247</v>
+        <v>0.386252954735042</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2778582245032197</v>
+        <v>0.3697673508392825</v>
       </c>
       <c r="E17">
-        <v>0.1985871137473296</v>
+        <v>0.2611392694006867</v>
       </c>
       <c r="F17">
-        <v>1.010673450961043</v>
+        <v>0.6119384795032587</v>
       </c>
       <c r="G17">
-        <v>0.470295764563275</v>
+        <v>0.2793916562261813</v>
       </c>
       <c r="H17">
-        <v>0.6192759981586278</v>
+        <v>0.2247096214990165</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1917985641451168</v>
+        <v>0.2498576526431435</v>
       </c>
       <c r="K17">
-        <v>1.301181004883006</v>
+        <v>4.039875655758237</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.137555897094003</v>
+        <v>1.013258349418251</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1730936837499826</v>
+        <v>0.3767425571028866</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.275679800227195</v>
+        <v>0.3612839383689845</v>
       </c>
       <c r="E18">
-        <v>0.1971874941635576</v>
+        <v>0.2551794945193819</v>
       </c>
       <c r="F18">
-        <v>1.0110269820577</v>
+        <v>0.6039699352320085</v>
       </c>
       <c r="G18">
-        <v>0.4710108057412228</v>
+        <v>0.2760702980276122</v>
       </c>
       <c r="H18">
-        <v>0.6205802356056012</v>
+        <v>0.2247623082984802</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1905729461980172</v>
+        <v>0.2441633281330979</v>
       </c>
       <c r="K18">
-        <v>1.270000735564963</v>
+        <v>3.943247262886757</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.141740243752096</v>
+        <v>1.006234284585943</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1721835958490772</v>
+        <v>0.3735269844814297</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.274943651160612</v>
+        <v>0.358415925627142</v>
       </c>
       <c r="E19">
-        <v>0.1967150479634583</v>
+        <v>0.253166307536155</v>
       </c>
       <c r="F19">
-        <v>1.011158165002861</v>
+        <v>0.6013024161157006</v>
       </c>
       <c r="G19">
-        <v>0.471260154699479</v>
+        <v>0.2749679811384311</v>
       </c>
       <c r="H19">
-        <v>0.6210275412580586</v>
+        <v>0.2247927866081056</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1901597283940504</v>
+        <v>0.2422414812591995</v>
       </c>
       <c r="K19">
-        <v>1.259438162028573</v>
+        <v>3.910540726940951</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.143184161912259</v>
+        <v>1.003929509685449</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1762835866173162</v>
+        <v>0.3880152804591575</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2782620790409283</v>
+        <v>0.3713395278216325</v>
       </c>
       <c r="E20">
-        <v>0.1988468358488191</v>
+        <v>0.2622445518909373</v>
       </c>
       <c r="F20">
-        <v>1.010613475587938</v>
+        <v>0.6134279248755234</v>
       </c>
       <c r="G20">
-        <v>0.4701668710154152</v>
+        <v>0.2800170521538163</v>
       </c>
       <c r="H20">
-        <v>0.6190373270551319</v>
+        <v>0.2247059292893923</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1920262321576445</v>
+        <v>0.2509145110086735</v>
       </c>
       <c r="K20">
-        <v>1.306949158005068</v>
+        <v>4.057764458923771</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.136794378087103</v>
+        <v>1.01459361491807</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1901368682050872</v>
+        <v>0.4370272401254454</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2895101810582048</v>
+        <v>0.4150826565266641</v>
       </c>
       <c r="E21">
-        <v>0.2061092898233099</v>
+        <v>0.2930935760508149</v>
       </c>
       <c r="F21">
-        <v>1.009582661898705</v>
+        <v>0.6563897519551176</v>
       </c>
       <c r="G21">
-        <v>0.4669987745437822</v>
+        <v>0.2986049556810855</v>
       </c>
       <c r="H21">
-        <v>0.6127480264576235</v>
+        <v>0.2253274970337316</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1984194537395894</v>
+        <v>0.2805099050122095</v>
       </c>
       <c r="K21">
-        <v>1.466189290264253</v>
+        <v>4.553262787411825</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.117217954037557</v>
+        <v>1.055767518253333</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1992478962401663</v>
+        <v>0.4693337688741508</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2969341634379816</v>
+        <v>0.4439364474228853</v>
       </c>
       <c r="E22">
-        <v>0.2109298552939052</v>
+        <v>0.3135399577583655</v>
       </c>
       <c r="F22">
-        <v>1.009505170202971</v>
+        <v>0.6862469036887262</v>
       </c>
       <c r="G22">
-        <v>0.4653058881305014</v>
+        <v>0.3120574438130603</v>
       </c>
       <c r="H22">
-        <v>0.6089340248056487</v>
+        <v>0.2264563359404548</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2026886358752193</v>
+        <v>0.3002247741212472</v>
       </c>
       <c r="K22">
-        <v>1.569959565145552</v>
+        <v>4.877902134126316</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.105836713134664</v>
+        <v>1.086947055576189</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1943800036805925</v>
+        <v>0.4520643392794739</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2929652450908975</v>
+        <v>0.4285106840997059</v>
       </c>
       <c r="E23">
-        <v>0.2083502684457414</v>
+        <v>0.3025995621666979</v>
       </c>
       <c r="F23">
-        <v>1.009491944462567</v>
+        <v>0.670140600444924</v>
       </c>
       <c r="G23">
-        <v>0.4661747867035615</v>
+        <v>0.3047520089239413</v>
       </c>
       <c r="H23">
-        <v>0.6109424989571437</v>
+        <v>0.2257849520072597</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.200401787721546</v>
+        <v>0.289666270530148</v>
       </c>
       <c r="K23">
-        <v>1.514603815202804</v>
+        <v>4.704551100075605</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.111781627428286</v>
+        <v>1.069896154551827</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1760581393712783</v>
+        <v>0.3872184628266808</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2780794736656986</v>
+        <v>0.3706286779484884</v>
       </c>
       <c r="E24">
-        <v>0.1987293913715718</v>
+        <v>0.2617447747994532</v>
       </c>
       <c r="F24">
-        <v>1.010640381736643</v>
+        <v>0.6127539943480187</v>
       </c>
       <c r="G24">
-        <v>0.4702250112773569</v>
+        <v>0.2797339040184141</v>
       </c>
       <c r="H24">
-        <v>0.6191451248395978</v>
+        <v>0.2247073656953944</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1919232733657026</v>
+        <v>0.2504365989205581</v>
       </c>
       <c r="K24">
-        <v>1.304341520151809</v>
+        <v>4.049676867919061</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.137138162135713</v>
+        <v>1.01398859474449</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1565461964429744</v>
+        <v>0.3182847353846086</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2623401255290787</v>
+        <v>0.3091709479884486</v>
       </c>
       <c r="E25">
-        <v>0.1886722399632603</v>
+        <v>0.2187353065788358</v>
       </c>
       <c r="F25">
-        <v>1.014435588393589</v>
+        <v>0.5577125284132478</v>
       </c>
       <c r="G25">
-        <v>0.4762078911293202</v>
+        <v>0.2577526716439991</v>
       </c>
       <c r="H25">
-        <v>0.629264838606133</v>
+        <v>0.2263829344415953</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1831684726321328</v>
+        <v>0.2095101468763829</v>
       </c>
       <c r="K25">
-        <v>1.076315110838209</v>
+        <v>3.345653871249681</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.170538818813213</v>
+        <v>0.9702008432799971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2682190561509685</v>
+        <v>0.2566188784616799</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2645864840509518</v>
+        <v>0.2611146829148652</v>
       </c>
       <c r="E2">
-        <v>0.187804829595656</v>
+        <v>0.2156078955723828</v>
       </c>
       <c r="F2">
-        <v>0.5222806857120901</v>
+        <v>0.6763397403256448</v>
       </c>
       <c r="G2">
-        <v>0.2452621826408361</v>
+        <v>0.3475146784465721</v>
       </c>
       <c r="H2">
-        <v>0.2297877498173193</v>
+        <v>0.001030916219892042</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003969007481054554</v>
       </c>
       <c r="J2">
-        <v>0.1803500915317571</v>
+        <v>0.2884195242115055</v>
       </c>
       <c r="K2">
-        <v>2.828119629783345</v>
+        <v>0.2388132402393452</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2343226105113629</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.907776858187106</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9503070336014048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8605968109219617</v>
+      </c>
+      <c r="Q2">
+        <v>1.289559800114233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2346360089690052</v>
+        <v>0.2236006275199713</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2347078792999326</v>
+        <v>0.2337394187039763</v>
       </c>
       <c r="E3">
-        <v>0.1672236763208588</v>
+        <v>0.1934276443771239</v>
       </c>
       <c r="F3">
-        <v>0.5010775473240443</v>
+        <v>0.6348442377866519</v>
       </c>
       <c r="G3">
-        <v>0.2388217464989069</v>
+        <v>0.3262099167214956</v>
       </c>
       <c r="H3">
-        <v>0.2333259264181891</v>
+        <v>0.0003436690186233715</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004728034864101893</v>
       </c>
       <c r="J3">
-        <v>0.1610948963473433</v>
+        <v>0.282386339518176</v>
       </c>
       <c r="K3">
-        <v>2.477370052768237</v>
+        <v>0.2474817679555803</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2104694256564343</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.668059587024032</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9436740916873561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8685328927547076</v>
+      </c>
+      <c r="Q3">
+        <v>1.231486023758762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2141615754243134</v>
+        <v>0.2028916060654069</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2165044737081274</v>
+        <v>0.2169734701982975</v>
       </c>
       <c r="E4">
-        <v>0.1547504850960806</v>
+        <v>0.1798055604025421</v>
       </c>
       <c r="F4">
-        <v>0.4893309872732345</v>
+        <v>0.6098591507814817</v>
       </c>
       <c r="G4">
-        <v>0.2357796184692305</v>
+        <v>0.3135049722971743</v>
       </c>
       <c r="H4">
-        <v>0.2360673258996826</v>
+        <v>9.779587841785009E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.005281067855194888</v>
       </c>
       <c r="J4">
-        <v>0.1494914293681546</v>
+        <v>0.2789411167297047</v>
       </c>
       <c r="K4">
-        <v>2.261846838831701</v>
+        <v>0.2530263079306083</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1957929502250124</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.521176808403112</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.942717107832479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8741285358991888</v>
+      </c>
+      <c r="Q4">
+        <v>1.197161140661933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.205851269361446</v>
+        <v>0.1934187190364725</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2091189673362948</v>
+        <v>0.2102037517450412</v>
       </c>
       <c r="E5">
-        <v>0.1497054302078666</v>
+        <v>0.1742651988644042</v>
       </c>
       <c r="F5">
-        <v>0.4848481635997217</v>
+        <v>0.5995658213844308</v>
       </c>
       <c r="G5">
-        <v>0.2347571804558655</v>
+        <v>0.3082241013670171</v>
       </c>
       <c r="H5">
-        <v>0.2373221494879587</v>
+        <v>3.945546359340746E-05</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005608008650687335</v>
       </c>
       <c r="J5">
-        <v>0.1448138277505819</v>
+        <v>0.2774975879735422</v>
       </c>
       <c r="K5">
-        <v>2.173958824041506</v>
+        <v>0.2552896195126111</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.189793317659138</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.462803654687093</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9430735249387681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8769396055887171</v>
+      </c>
+      <c r="Q5">
+        <v>1.182869317164247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2044732564977636</v>
+        <v>0.1907073771610754</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2078944833415477</v>
+        <v>0.2091455688673705</v>
       </c>
       <c r="E6">
-        <v>0.1488698967998161</v>
+        <v>0.1733610131998979</v>
       </c>
       <c r="F6">
-        <v>0.4841217029496079</v>
+        <v>0.5975835990343725</v>
       </c>
       <c r="G6">
-        <v>0.2346001820033194</v>
+        <v>0.3071169730836161</v>
       </c>
       <c r="H6">
-        <v>0.2375386748199517</v>
+        <v>3.219914352015074E-05</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005769003242654946</v>
       </c>
       <c r="J6">
-        <v>0.1440400701465521</v>
+        <v>0.2771364826578804</v>
       </c>
       <c r="K6">
-        <v>2.15936087429364</v>
+        <v>0.2556088732371213</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1887849104326378</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.454853115135109</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9431767365044834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.877853051345781</v>
+      </c>
+      <c r="Q6">
+        <v>1.179753824087854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2140493697724821</v>
+        <v>0.1996587833940708</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2164047426132925</v>
+        <v>0.2170609627949744</v>
       </c>
       <c r="E7">
-        <v>0.1546822966177857</v>
+        <v>0.1797745701934517</v>
       </c>
       <c r="F7">
-        <v>0.4892693199915996</v>
+        <v>0.6089563805014606</v>
       </c>
       <c r="G7">
-        <v>0.2357649655228471</v>
+        <v>0.3127911068686799</v>
       </c>
       <c r="H7">
-        <v>0.2360836983581436</v>
+        <v>9.668929776407431E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005557993503868097</v>
       </c>
       <c r="J7">
-        <v>0.1494281449342338</v>
+        <v>0.2785805684866034</v>
       </c>
       <c r="K7">
-        <v>2.260661820805325</v>
+        <v>0.2528977165076116</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1956805814164611</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.52514882127889</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9427189402137799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8753751581043261</v>
+      </c>
+      <c r="Q7">
+        <v>1.194892115327349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2566072502306014</v>
+        <v>0.2411783609665008</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2542528306668999</v>
+        <v>0.2519032752340138</v>
       </c>
       <c r="E8">
-        <v>0.1806724260534764</v>
+        <v>0.2080182918964084</v>
       </c>
       <c r="F8">
-        <v>0.5146959678288425</v>
+        <v>0.6609194658168036</v>
       </c>
       <c r="G8">
-        <v>0.2428446736745613</v>
+        <v>0.3392411911190862</v>
       </c>
       <c r="H8">
-        <v>0.230886310207076</v>
+        <v>0.0007554368769588926</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00454349456276848</v>
       </c>
       <c r="J8">
-        <v>0.1736627617543149</v>
+        <v>0.2858369964423488</v>
       </c>
       <c r="K8">
-        <v>2.707202154357873</v>
+        <v>0.241574469928753</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2260619239052559</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.831397948430151</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9473504946025173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8648654219715439</v>
+      </c>
+      <c r="Q8">
+        <v>1.26651979240502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3413863879686971</v>
+        <v>0.3246250358032086</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3297584573342505</v>
+        <v>0.3203231231169354</v>
       </c>
       <c r="E9">
-        <v>0.2330975288622881</v>
+        <v>0.2633692838453641</v>
       </c>
       <c r="F9">
-        <v>0.5754104341170603</v>
+        <v>0.7684274395777777</v>
       </c>
       <c r="G9">
-        <v>0.264544184269937</v>
+        <v>0.3955069548596413</v>
       </c>
       <c r="H9">
-        <v>0.2254640073823069</v>
+        <v>0.003557129390553526</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002850002857099909</v>
       </c>
       <c r="J9">
-        <v>0.2231309209749384</v>
+        <v>0.3028433192971107</v>
       </c>
       <c r="K9">
-        <v>3.582599993177951</v>
+        <v>0.2214124481509687</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2855367349641824</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.426405446852726</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9829139043318946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8479124384977297</v>
+      </c>
+      <c r="Q9">
+        <v>1.422055798637473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4047305200966349</v>
+        <v>0.3828374670615915</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3862536733246031</v>
+        <v>0.3629351287157618</v>
       </c>
       <c r="E10">
-        <v>0.2727417649387576</v>
+        <v>0.2933157461732137</v>
       </c>
       <c r="F10">
-        <v>0.627750307120337</v>
+        <v>0.8379685888960466</v>
       </c>
       <c r="G10">
-        <v>0.2861002076961583</v>
+        <v>0.4331203661884473</v>
       </c>
       <c r="H10">
-        <v>0.2247630942041425</v>
+        <v>0.006643275197500742</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002227789149028325</v>
       </c>
       <c r="J10">
-        <v>0.2609641613197198</v>
+        <v>0.313832762670998</v>
       </c>
       <c r="K10">
-        <v>4.22717914687172</v>
+        <v>0.2076961031229396</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.314427018542446</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.854931184800563</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.027770898974836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8433092048957604</v>
+      </c>
+      <c r="Q10">
+        <v>1.525238067637162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4338358939356937</v>
+        <v>0.4113108857163752</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4122332527528272</v>
+        <v>0.314767120273018</v>
       </c>
       <c r="E11">
-        <v>0.2910785570152541</v>
+        <v>0.2202968738350179</v>
       </c>
       <c r="F11">
-        <v>0.6535048172847127</v>
+        <v>0.7656215337244987</v>
       </c>
       <c r="G11">
-        <v>0.2973264748860771</v>
+        <v>0.4002667546713496</v>
       </c>
       <c r="H11">
-        <v>0.2252459957434922</v>
+        <v>0.02492729712548325</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002547971402298899</v>
       </c>
       <c r="J11">
-        <v>0.2785711605297365</v>
+        <v>0.2942777358265545</v>
       </c>
       <c r="K11">
-        <v>4.521112084708136</v>
+        <v>0.2017578719517541</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.213828977759718</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.936962271500477</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.052856752704912</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8741155588156744</v>
+      </c>
+      <c r="Q11">
+        <v>1.414790474347654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4449041071104318</v>
+        <v>0.4287074496254775</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4221162124514706</v>
+        <v>0.268165560899547</v>
       </c>
       <c r="E12">
-        <v>0.2980707202188881</v>
+        <v>0.1625693719230661</v>
       </c>
       <c r="F12">
-        <v>0.6635606472587696</v>
+        <v>0.6932454312932634</v>
       </c>
       <c r="G12">
-        <v>0.3017997906054006</v>
+        <v>0.3662269238287195</v>
       </c>
       <c r="H12">
-        <v>0.2255521279339092</v>
+        <v>0.06306903030637301</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002481777871832236</v>
       </c>
       <c r="J12">
-        <v>0.2853019054870032</v>
+        <v>0.2761041624285951</v>
       </c>
       <c r="K12">
-        <v>4.632552865725472</v>
+        <v>0.1999693722666045</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1430021502138601</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.906135323893949</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.06308396174316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9006573094877268</v>
+      </c>
+      <c r="Q12">
+        <v>1.304613689363066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4425182127027654</v>
+        <v>0.4335468573549974</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4199856554515975</v>
+        <v>0.2206066179104624</v>
       </c>
       <c r="E13">
-        <v>0.2965625971266093</v>
+        <v>0.1135444711757501</v>
       </c>
       <c r="F13">
-        <v>0.6613810700128795</v>
+        <v>0.6156775297088117</v>
       </c>
       <c r="G13">
-        <v>0.3008262020751289</v>
+        <v>0.3283438613489551</v>
       </c>
       <c r="H13">
-        <v>0.2254805815542227</v>
+        <v>0.1180387959568492</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002499118355358654</v>
       </c>
       <c r="J13">
-        <v>0.2838493954279642</v>
+        <v>0.2574008394689287</v>
       </c>
       <c r="K13">
-        <v>4.608545558798028</v>
+        <v>0.2010048510324207</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09104226604941346</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.794502269477647</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.060848070657954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9268935441340034</v>
+      </c>
+      <c r="Q13">
+        <v>1.185099900096503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4347455182312387</v>
+        <v>0.430234290957614</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4130453977941784</v>
+        <v>0.1876777581598077</v>
       </c>
       <c r="E14">
-        <v>0.2916528066416006</v>
+        <v>0.08481410560945335</v>
       </c>
       <c r="F14">
-        <v>0.6543259004522852</v>
+        <v>0.5596738367960725</v>
       </c>
       <c r="G14">
-        <v>0.2976899374853019</v>
+        <v>0.3002926209548917</v>
       </c>
       <c r="H14">
-        <v>0.2252686632836856</v>
+        <v>0.1667700216480057</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002636005562524524</v>
       </c>
       <c r="J14">
-        <v>0.2791235952463609</v>
+        <v>0.2441325827614875</v>
       </c>
       <c r="K14">
-        <v>4.530277487960973</v>
+        <v>0.2030546059491858</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06610135587807164</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.681740351564997</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.053683239322595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9456383843803167</v>
+      </c>
+      <c r="Q14">
+        <v>1.097785077996107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4299907448944253</v>
+        <v>0.4253098917750577</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4088003070475565</v>
+        <v>0.1791489022544113</v>
       </c>
       <c r="E15">
-        <v>0.288651875894665</v>
+        <v>0.07840843287090493</v>
       </c>
       <c r="F15">
-        <v>0.6500446099515429</v>
+        <v>0.5445237789986948</v>
       </c>
       <c r="G15">
-        <v>0.2957983714593269</v>
+        <v>0.2924083197546992</v>
       </c>
       <c r="H15">
-        <v>0.2251551565264691</v>
+        <v>0.1790294215538495</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00281118429872329</v>
       </c>
       <c r="J15">
-        <v>0.2762373531094511</v>
+        <v>0.2406847602191533</v>
       </c>
       <c r="K15">
-        <v>4.482354596360494</v>
+        <v>0.2041811004749148</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0614764626823181</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.639333090262284</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.049391035516322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9505659389223382</v>
+      </c>
+      <c r="Q15">
+        <v>1.073817267562845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4028346647549057</v>
+        <v>0.397181351730211</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3845618800541502</v>
+        <v>0.1718733864391737</v>
       </c>
       <c r="E16">
-        <v>0.2715499116106486</v>
+        <v>0.07694430144382025</v>
       </c>
       <c r="F16">
-        <v>0.626108296212756</v>
+        <v>0.5312410355752917</v>
       </c>
       <c r="G16">
-        <v>0.2853966303589601</v>
+        <v>0.2839878385018579</v>
       </c>
       <c r="H16">
-        <v>0.2247483382138498</v>
+        <v>0.1651379187633495</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003199581153206843</v>
       </c>
       <c r="J16">
-        <v>0.2598220126491668</v>
+        <v>0.2396421074711483</v>
       </c>
       <c r="K16">
-        <v>4.20798696138047</v>
+        <v>0.209417592854602</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06117163726667485</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.482982550540925</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.026230250868707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9458854202214724</v>
+      </c>
+      <c r="Q16">
+        <v>1.053605190118759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.386252954735042</v>
+        <v>0.3772698584667467</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3697673508392825</v>
+        <v>0.1832739920781279</v>
       </c>
       <c r="E17">
-        <v>0.2611392694006867</v>
+        <v>0.08992321555929905</v>
       </c>
       <c r="F17">
-        <v>0.6119384795032587</v>
+        <v>0.5503835189638338</v>
       </c>
       <c r="G17">
-        <v>0.2793916562261813</v>
+        <v>0.2922939226611376</v>
       </c>
       <c r="H17">
-        <v>0.2247096214990165</v>
+        <v>0.1267976396618593</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003454656216351104</v>
       </c>
       <c r="J17">
-        <v>0.2498576526431435</v>
+        <v>0.245864920812835</v>
       </c>
       <c r="K17">
-        <v>4.039875655758237</v>
+        <v>0.2123983029688485</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0721339208158831</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.423042356145857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.013258349418251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9326771265646698</v>
+      </c>
+      <c r="Q17">
+        <v>1.08414179371232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3767425571028866</v>
+        <v>0.3651565627133806</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3612839383689845</v>
+        <v>0.2137777758655233</v>
       </c>
       <c r="E18">
-        <v>0.2551794945193819</v>
+        <v>0.1220103309983251</v>
       </c>
       <c r="F18">
-        <v>0.6039699352320085</v>
+        <v>0.6015056637862841</v>
       </c>
       <c r="G18">
-        <v>0.2760702980276122</v>
+        <v>0.3168224846474956</v>
       </c>
       <c r="H18">
-        <v>0.2247623082984802</v>
+        <v>0.07396433274416836</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003308480667197244</v>
       </c>
       <c r="J18">
-        <v>0.2441633281330979</v>
+        <v>0.2594116263868784</v>
       </c>
       <c r="K18">
-        <v>3.943247262886757</v>
+        <v>0.2137694106437333</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1040284192313479</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.434693550714883</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.006234284585943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9097627854058601</v>
+      </c>
+      <c r="Q18">
+        <v>1.164462803568455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3735269844814297</v>
+        <v>0.3541990103432937</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.358415925627142</v>
+        <v>0.2607452121942515</v>
       </c>
       <c r="E19">
-        <v>0.253166307536155</v>
+        <v>0.1752453364613515</v>
       </c>
       <c r="F19">
-        <v>0.6013024161157006</v>
+        <v>0.6761256872069481</v>
       </c>
       <c r="G19">
-        <v>0.2749679811384311</v>
+        <v>0.3526171067566395</v>
       </c>
       <c r="H19">
-        <v>0.2247927866081056</v>
+        <v>0.02935121344216896</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003423153272016144</v>
       </c>
       <c r="J19">
-        <v>0.2422414812591995</v>
+        <v>0.2776943941144907</v>
       </c>
       <c r="K19">
-        <v>3.910540726940951</v>
+        <v>0.2141160204668542</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1655566736022109</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.512120667579183</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.003929509685449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8850471286722978</v>
+      </c>
+      <c r="Q19">
+        <v>1.278638425671346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3880152804591575</v>
+        <v>0.3578879971319822</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3713395278216325</v>
+        <v>0.3519475661774862</v>
       </c>
       <c r="E20">
-        <v>0.2622445518909373</v>
+        <v>0.2851302582864434</v>
       </c>
       <c r="F20">
-        <v>0.6134279248755234</v>
+        <v>0.8166529859392426</v>
       </c>
       <c r="G20">
-        <v>0.2800170521538163</v>
+        <v>0.4208705085692515</v>
       </c>
       <c r="H20">
-        <v>0.2247059292893923</v>
+        <v>0.005729624610747663</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003205415481724039</v>
       </c>
       <c r="J20">
-        <v>0.2509145110086735</v>
+        <v>0.3096943120968518</v>
       </c>
       <c r="K20">
-        <v>4.057764458923771</v>
+        <v>0.2110007525423887</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3061232962890301</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.756838753346727</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.01459361491807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8488135499511174</v>
+      </c>
+      <c r="Q20">
+        <v>1.490493308255964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4370272401254454</v>
+        <v>0.402517406592267</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4150826565266641</v>
+        <v>0.3972166807254354</v>
       </c>
       <c r="E21">
-        <v>0.2930935760508149</v>
+        <v>0.3249627751361359</v>
       </c>
       <c r="F21">
-        <v>0.6563897519551176</v>
+        <v>0.8904308166424357</v>
       </c>
       <c r="G21">
-        <v>0.2986049556810855</v>
+        <v>0.4599813573683491</v>
       </c>
       <c r="H21">
-        <v>0.2253274970337316</v>
+        <v>0.008587994376669961</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002691609674300821</v>
       </c>
       <c r="J21">
-        <v>0.2805099050122095</v>
+        <v>0.3232680722703662</v>
       </c>
       <c r="K21">
-        <v>4.553262787411825</v>
+        <v>0.2010136868365175</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3512678162794458</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.105014704823589</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.055767518253333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8409045513324998</v>
+      </c>
+      <c r="Q21">
+        <v>1.602158092809901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4693337688741508</v>
+        <v>0.4357175268629305</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4439364474228853</v>
+        <v>0.4225448594592933</v>
       </c>
       <c r="E22">
-        <v>0.3135399577583655</v>
+        <v>0.3454604972641491</v>
       </c>
       <c r="F22">
-        <v>0.6862469036887262</v>
+        <v>0.9341645627234811</v>
       </c>
       <c r="G22">
-        <v>0.3120574438130603</v>
+        <v>0.4839768905438717</v>
       </c>
       <c r="H22">
-        <v>0.2264563359404548</v>
+        <v>0.01066687438995735</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002120275587034648</v>
       </c>
       <c r="J22">
-        <v>0.3002247741212472</v>
+        <v>0.3314500378353102</v>
       </c>
       <c r="K22">
-        <v>4.877902134126316</v>
+        <v>0.1947726588322827</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3733132613254355</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.320016756384916</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.086947055576189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8362794772096791</v>
+      </c>
+      <c r="Q22">
+        <v>1.670365088100596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4520643392794739</v>
+        <v>0.4217755195391533</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4285106840997059</v>
+        <v>0.4088030815985348</v>
       </c>
       <c r="E23">
-        <v>0.3025995621666979</v>
+        <v>0.3344612137422942</v>
       </c>
       <c r="F23">
-        <v>0.670140600444924</v>
+        <v>0.9116358648343663</v>
       </c>
       <c r="G23">
-        <v>0.3047520089239413</v>
+        <v>0.4718562708601866</v>
       </c>
       <c r="H23">
-        <v>0.2257849520072597</v>
+        <v>0.009534567129847807</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002093293812570174</v>
       </c>
       <c r="J23">
-        <v>0.289666270530148</v>
+        <v>0.3274388279383373</v>
       </c>
       <c r="K23">
-        <v>4.704551100075605</v>
+        <v>0.198145480169384</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3615783342816741</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.19941398298505</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.069896154551827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8369441648236418</v>
+      </c>
+      <c r="Q23">
+        <v>1.636161232971801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3872184628266808</v>
+        <v>0.3621997276113689</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3706286779484884</v>
+        <v>0.3573023099197883</v>
       </c>
       <c r="E24">
-        <v>0.2617447747994532</v>
+        <v>0.2930054546299772</v>
       </c>
       <c r="F24">
-        <v>0.6127539943480187</v>
+        <v>0.8264222869642595</v>
       </c>
       <c r="G24">
-        <v>0.2797339040184141</v>
+        <v>0.4259539802012853</v>
       </c>
       <c r="H24">
-        <v>0.2247073656953944</v>
+        <v>0.005747560303652088</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002681729718784887</v>
       </c>
       <c r="J24">
-        <v>0.2504365989205581</v>
+        <v>0.3123187901982476</v>
       </c>
       <c r="K24">
-        <v>4.049676867919061</v>
+        <v>0.2113042146961879</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3171724459448342</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.753272407531114</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.01398859474449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8438427179633834</v>
+      </c>
+      <c r="Q24">
+        <v>1.506763670039504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3182847353846086</v>
+        <v>0.2967608717857217</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3091709479884486</v>
+        <v>0.3020832340687321</v>
       </c>
       <c r="E25">
-        <v>0.2187353065788358</v>
+        <v>0.2484606327763146</v>
       </c>
       <c r="F25">
-        <v>0.5577125284132478</v>
+        <v>0.7374727673239718</v>
       </c>
       <c r="G25">
-        <v>0.2577526716439991</v>
+        <v>0.3787494024424092</v>
       </c>
       <c r="H25">
-        <v>0.2263829344415953</v>
+        <v>0.00262038146716348</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003696256523063823</v>
       </c>
       <c r="J25">
-        <v>0.2095101468763829</v>
+        <v>0.2973890309500717</v>
       </c>
       <c r="K25">
-        <v>3.345653871249681</v>
+        <v>0.2264850891631387</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2693957221653704</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.273772183277487</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9702008432799971</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8542802680704327</v>
+      </c>
+      <c r="Q25">
+        <v>1.374942332131468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2566188784616799</v>
+        <v>0.2662306671585526</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2611146829148652</v>
+        <v>0.260102985936129</v>
       </c>
       <c r="E2">
-        <v>0.2156078955723828</v>
+        <v>0.2151217033892152</v>
       </c>
       <c r="F2">
-        <v>0.6763397403256448</v>
+        <v>0.6801190287327543</v>
       </c>
       <c r="G2">
-        <v>0.3475146784465721</v>
+        <v>0.33185293996182</v>
       </c>
       <c r="H2">
-        <v>0.001030916219892042</v>
+        <v>0.0009860429038479612</v>
       </c>
       <c r="I2">
-        <v>0.003969007481054554</v>
+        <v>0.002214737066211114</v>
       </c>
       <c r="J2">
-        <v>0.2884195242115055</v>
+        <v>0.3303228956716282</v>
       </c>
       <c r="K2">
-        <v>0.2388132402393452</v>
+        <v>0.215539604413869</v>
       </c>
       <c r="L2">
-        <v>0.2343226105113629</v>
+        <v>0.1070194906890505</v>
       </c>
       <c r="M2">
-        <v>1.907776858187106</v>
+        <v>0.0604178672129474</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2340792770445219</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.880828100215922</v>
       </c>
       <c r="P2">
-        <v>0.8605968109219617</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.289559800114233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.833061075148315</v>
+      </c>
+      <c r="S2">
+        <v>1.300897783195722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2236006275199713</v>
+        <v>0.2362906345079665</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2337394187039763</v>
+        <v>0.2326684973131989</v>
       </c>
       <c r="E3">
-        <v>0.1934276443771239</v>
+        <v>0.1929989994089212</v>
       </c>
       <c r="F3">
-        <v>0.6348442377866519</v>
+        <v>0.6390960777656645</v>
       </c>
       <c r="G3">
-        <v>0.3262099167214956</v>
+        <v>0.3112372622565118</v>
       </c>
       <c r="H3">
-        <v>0.0003436690186233715</v>
+        <v>0.0003257327157328849</v>
       </c>
       <c r="I3">
-        <v>0.004728034864101893</v>
+        <v>0.002641518699374235</v>
       </c>
       <c r="J3">
-        <v>0.282386339518176</v>
+        <v>0.322462695600116</v>
       </c>
       <c r="K3">
-        <v>0.2474817679555803</v>
+        <v>0.2229302279580146</v>
       </c>
       <c r="L3">
-        <v>0.2104694256564343</v>
+        <v>0.1106118098490341</v>
       </c>
       <c r="M3">
-        <v>1.668059587024032</v>
+        <v>0.06418467341145861</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2103632729479443</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.636845913327136</v>
       </c>
       <c r="P3">
-        <v>0.8685328927547076</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.231486023758762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8379830351708009</v>
+      </c>
+      <c r="S3">
+        <v>1.243845179026096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2028916060654069</v>
+        <v>0.2173159450094602</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2169734701982975</v>
+        <v>0.2158756051114636</v>
       </c>
       <c r="E4">
-        <v>0.1798055604025421</v>
+        <v>0.1794142695421392</v>
       </c>
       <c r="F4">
-        <v>0.6098591507814817</v>
+        <v>0.6143476945593846</v>
       </c>
       <c r="G4">
-        <v>0.3135049722971743</v>
+        <v>0.2990007489000064</v>
       </c>
       <c r="H4">
-        <v>9.779587841785009E-05</v>
+        <v>9.093079995547981E-05</v>
       </c>
       <c r="I4">
-        <v>0.005281067855194888</v>
+        <v>0.002975590633580882</v>
       </c>
       <c r="J4">
-        <v>0.2789411167297047</v>
+        <v>0.3177534683097036</v>
       </c>
       <c r="K4">
-        <v>0.2530263079306083</v>
+        <v>0.2276661782922232</v>
       </c>
       <c r="L4">
-        <v>0.1957929502250124</v>
+        <v>0.1131930910823469</v>
       </c>
       <c r="M4">
-        <v>1.521176808403112</v>
+        <v>0.06677227083236037</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1957690021987162</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.48756004435225</v>
       </c>
       <c r="P4">
-        <v>0.8741285358991888</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.197161140661933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8417899516418714</v>
+      </c>
+      <c r="S4">
+        <v>1.209989482640751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1934187190364725</v>
+        <v>0.2085372079963435</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2102037517450412</v>
+        <v>0.2090936443524498</v>
       </c>
       <c r="E5">
-        <v>0.1742651988644042</v>
+        <v>0.1738888154639895</v>
       </c>
       <c r="F5">
-        <v>0.5995658213844308</v>
+        <v>0.6041518330950382</v>
       </c>
       <c r="G5">
-        <v>0.3082241013670171</v>
+        <v>0.2939344509780497</v>
       </c>
       <c r="H5">
-        <v>3.945546359340746E-05</v>
+        <v>3.581901641758201E-05</v>
       </c>
       <c r="I5">
-        <v>0.005608008650687335</v>
+        <v>0.003219149443377312</v>
       </c>
       <c r="J5">
-        <v>0.2774975879735422</v>
+        <v>0.3157636466443918</v>
       </c>
       <c r="K5">
-        <v>0.2552896195126111</v>
+        <v>0.229577381934108</v>
       </c>
       <c r="L5">
-        <v>0.189793317659138</v>
+        <v>0.1142433761260566</v>
       </c>
       <c r="M5">
-        <v>1.462803654687093</v>
+        <v>0.06793832822618384</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1898030524100065</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.428159833324287</v>
       </c>
       <c r="P5">
-        <v>0.8769396055887171</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.182869317164247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8438467355585431</v>
+      </c>
+      <c r="S5">
+        <v>1.195887062438729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1907073771610754</v>
+        <v>0.2059722607116328</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2091455688673705</v>
+        <v>0.2080290593485756</v>
       </c>
       <c r="E6">
-        <v>0.1733610131998979</v>
+        <v>0.1729860625343029</v>
       </c>
       <c r="F6">
-        <v>0.5975835990343725</v>
+        <v>0.6022023692356839</v>
       </c>
       <c r="G6">
-        <v>0.3071169730836161</v>
+        <v>0.2928799439050493</v>
       </c>
       <c r="H6">
-        <v>3.219914352015074E-05</v>
+        <v>2.902709583985086E-05</v>
       </c>
       <c r="I6">
-        <v>0.005769003242654946</v>
+        <v>0.003379245519965046</v>
       </c>
       <c r="J6">
-        <v>0.2771364826578804</v>
+        <v>0.315313880673358</v>
       </c>
       <c r="K6">
-        <v>0.2556088732371213</v>
+        <v>0.2298175441311057</v>
       </c>
       <c r="L6">
-        <v>0.1887849104326378</v>
+        <v>0.1143083296313101</v>
       </c>
       <c r="M6">
-        <v>1.454853115135109</v>
+        <v>0.06818780603757357</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1888009765412306</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.41991574241419</v>
       </c>
       <c r="P6">
-        <v>0.877853051345781</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.179753824087854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8445853798420941</v>
+      </c>
+      <c r="S6">
+        <v>1.192846080701159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1996587833940708</v>
+        <v>0.2143744685788107</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2170609627949744</v>
+        <v>0.2161604510831268</v>
       </c>
       <c r="E7">
-        <v>0.1797745701934517</v>
+        <v>0.1794231837680513</v>
       </c>
       <c r="F7">
-        <v>0.6089563805014606</v>
+        <v>0.6125779590853284</v>
       </c>
       <c r="G7">
-        <v>0.3127911068686799</v>
+        <v>0.3011308529011529</v>
       </c>
       <c r="H7">
-        <v>9.668929776407431E-05</v>
+        <v>8.917514385986536E-05</v>
       </c>
       <c r="I7">
-        <v>0.005557993503868097</v>
+        <v>0.003286444449996928</v>
       </c>
       <c r="J7">
-        <v>0.2785805684866034</v>
+        <v>0.3132231467628515</v>
       </c>
       <c r="K7">
-        <v>0.2528977165076116</v>
+        <v>0.2274603609996925</v>
       </c>
       <c r="L7">
-        <v>0.1956805814164611</v>
+        <v>0.1128880924265907</v>
       </c>
       <c r="M7">
-        <v>1.52514882127889</v>
+        <v>0.06692309054274226</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1956066895775948</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.489351318222504</v>
       </c>
       <c r="P7">
-        <v>0.8753751581043261</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.194892115327349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8432059798898166</v>
+      </c>
+      <c r="S7">
+        <v>1.20539774347634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2411783609665008</v>
+        <v>0.2526615549808469</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2519032752340138</v>
+        <v>0.2515586712296454</v>
       </c>
       <c r="E8">
-        <v>0.2080182918964084</v>
+        <v>0.2076930631339238</v>
       </c>
       <c r="F8">
-        <v>0.6609194658168036</v>
+        <v>0.6618860817596257</v>
       </c>
       <c r="G8">
-        <v>0.3392411911190862</v>
+        <v>0.3332607175182218</v>
       </c>
       <c r="H8">
-        <v>0.0007554368769588926</v>
+        <v>0.0007148586951344349</v>
       </c>
       <c r="I8">
-        <v>0.00454349456276848</v>
+        <v>0.002724462592480492</v>
       </c>
       <c r="J8">
-        <v>0.2858369964423488</v>
+        <v>0.3134872543966978</v>
       </c>
       <c r="K8">
-        <v>0.241574469928753</v>
+        <v>0.217768479313321</v>
       </c>
       <c r="L8">
-        <v>0.2260619239052559</v>
+        <v>0.107841704597043</v>
       </c>
       <c r="M8">
-        <v>1.831397948430151</v>
+        <v>0.06177580629273338</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2256964064144</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.79635544015278</v>
       </c>
       <c r="P8">
-        <v>0.8648654219715439</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.26651979240502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8372290938195732</v>
+      </c>
+      <c r="S8">
+        <v>1.270263292351729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3246250358032086</v>
+        <v>0.3276444723118885</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3203231231169354</v>
+        <v>0.3203983654221929</v>
       </c>
       <c r="E9">
-        <v>0.2633692838453641</v>
+        <v>0.2629581622846686</v>
       </c>
       <c r="F9">
-        <v>0.7684274395777777</v>
+        <v>0.7669872704012519</v>
       </c>
       <c r="G9">
-        <v>0.3955069548596413</v>
+        <v>0.3907308187269649</v>
       </c>
       <c r="H9">
-        <v>0.003557129390553526</v>
+        <v>0.003405409968332496</v>
       </c>
       <c r="I9">
-        <v>0.002850002857099909</v>
+        <v>0.001733443064542151</v>
       </c>
       <c r="J9">
-        <v>0.3028433192971107</v>
+        <v>0.330354575355301</v>
       </c>
       <c r="K9">
-        <v>0.2214124481509687</v>
+        <v>0.2007379048582729</v>
       </c>
       <c r="L9">
-        <v>0.2855367349641824</v>
+        <v>0.1013798189456145</v>
       </c>
       <c r="M9">
-        <v>2.426405446852726</v>
+        <v>0.05370276651408168</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.284765909768609</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.401709944241929</v>
       </c>
       <c r="P9">
-        <v>0.8479124384977297</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.422055798637473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8287037565788609</v>
+      </c>
+      <c r="S9">
+        <v>1.419900682502885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3828374670615915</v>
+        <v>0.38053431903964</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3629351287157618</v>
+        <v>0.3645893785348875</v>
       </c>
       <c r="E10">
-        <v>0.2933157461732137</v>
+        <v>0.2931072766730054</v>
       </c>
       <c r="F10">
-        <v>0.8379685888960466</v>
+        <v>0.8292612152842622</v>
       </c>
       <c r="G10">
-        <v>0.4331203661884473</v>
+        <v>0.446610723945625</v>
       </c>
       <c r="H10">
-        <v>0.006643275197500742</v>
+        <v>0.006353121338403156</v>
       </c>
       <c r="I10">
-        <v>0.002227789149028325</v>
+        <v>0.001563297858359292</v>
       </c>
       <c r="J10">
-        <v>0.313832762670998</v>
+        <v>0.3177168925633964</v>
       </c>
       <c r="K10">
-        <v>0.2076961031229396</v>
+        <v>0.1892138158851748</v>
       </c>
       <c r="L10">
-        <v>0.314427018542446</v>
+        <v>0.09850895181695618</v>
       </c>
       <c r="M10">
-        <v>2.854931184800563</v>
+        <v>0.04899882767741587</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3130728167193126</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.82685690658721</v>
       </c>
       <c r="P10">
-        <v>0.8433092048957604</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.525238067637162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8326062962008436</v>
+      </c>
+      <c r="S10">
+        <v>1.503990290763596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4113108857163752</v>
+        <v>0.4125138930329086</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.314767120273018</v>
+        <v>0.318699709951261</v>
       </c>
       <c r="E11">
-        <v>0.2202968738350179</v>
+        <v>0.2204667574945276</v>
       </c>
       <c r="F11">
-        <v>0.7656215337244987</v>
+        <v>0.7467439830672618</v>
       </c>
       <c r="G11">
-        <v>0.4002667546713496</v>
+        <v>0.4502823645384382</v>
       </c>
       <c r="H11">
-        <v>0.02492729712548325</v>
+        <v>0.02457574873274382</v>
       </c>
       <c r="I11">
-        <v>0.002547971402298899</v>
+        <v>0.002114189081424023</v>
       </c>
       <c r="J11">
-        <v>0.2942777358265545</v>
+        <v>0.2575638673033254</v>
       </c>
       <c r="K11">
-        <v>0.2017578719517541</v>
+        <v>0.1845435421135178</v>
       </c>
       <c r="L11">
-        <v>0.213828977759718</v>
+        <v>0.09809712555381189</v>
       </c>
       <c r="M11">
-        <v>2.936962271500477</v>
+        <v>0.04682015440592008</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2120920202519088</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.882606838250695</v>
       </c>
       <c r="P11">
-        <v>0.8741155588156744</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.414790474347654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8703368889548386</v>
+      </c>
+      <c r="S11">
+        <v>1.365926426198826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4287074496254775</v>
+        <v>0.4332416444225942</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.268165560899547</v>
+        <v>0.2727091177190744</v>
       </c>
       <c r="E12">
-        <v>0.1625693719230661</v>
+        <v>0.1627620758824762</v>
       </c>
       <c r="F12">
-        <v>0.6932454312932634</v>
+        <v>0.6711997660720002</v>
       </c>
       <c r="G12">
-        <v>0.3662269238287195</v>
+        <v>0.4310628151342684</v>
       </c>
       <c r="H12">
-        <v>0.06306903030637301</v>
+        <v>0.06270943697717257</v>
       </c>
       <c r="I12">
-        <v>0.002481777871832236</v>
+        <v>0.002083294961924942</v>
       </c>
       <c r="J12">
-        <v>0.2761041624285951</v>
+        <v>0.2271577485098106</v>
       </c>
       <c r="K12">
-        <v>0.1999693722666045</v>
+        <v>0.1833199485067851</v>
       </c>
       <c r="L12">
-        <v>0.1430021502138601</v>
+        <v>0.09840206223251968</v>
       </c>
       <c r="M12">
-        <v>2.906135323893949</v>
+        <v>0.04599603890959636</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1413264844811906</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.837847497827056</v>
       </c>
       <c r="P12">
-        <v>0.9006573094877268</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.304613689363066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.899754378287497</v>
+      </c>
+      <c r="S12">
+        <v>1.246556598303926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4335468573549974</v>
+        <v>0.4413458529440248</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2206066179104624</v>
+        <v>0.2242764838431839</v>
       </c>
       <c r="E13">
-        <v>0.1135444711757501</v>
+        <v>0.1135130323537332</v>
       </c>
       <c r="F13">
-        <v>0.6156775297088117</v>
+        <v>0.5970215313029854</v>
       </c>
       <c r="G13">
-        <v>0.3283438613489551</v>
+        <v>0.3856627200203349</v>
       </c>
       <c r="H13">
-        <v>0.1180387959568492</v>
+        <v>0.1177175088559181</v>
       </c>
       <c r="I13">
-        <v>0.002499118355358654</v>
+        <v>0.002058050167335956</v>
       </c>
       <c r="J13">
-        <v>0.2574008394689287</v>
+        <v>0.2180092819325523</v>
       </c>
       <c r="K13">
-        <v>0.2010048510324207</v>
+        <v>0.1843003387003259</v>
       </c>
       <c r="L13">
-        <v>0.09104226604941346</v>
+        <v>0.09884442138024596</v>
       </c>
       <c r="M13">
-        <v>2.794502269477647</v>
+        <v>0.0461494068180035</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08971752333116711</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.725214188356489</v>
       </c>
       <c r="P13">
-        <v>0.9268935441340034</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.185099900096503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.9239555683068232</v>
+      </c>
+      <c r="S13">
+        <v>1.135504017379589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.430234290957614</v>
+        <v>0.4403637302979178</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1876777581598077</v>
+        <v>0.1902546624383206</v>
       </c>
       <c r="E14">
-        <v>0.08481410560945335</v>
+        <v>0.08458673176036413</v>
       </c>
       <c r="F14">
-        <v>0.5596738367960725</v>
+        <v>0.5457575922496289</v>
       </c>
       <c r="G14">
-        <v>0.3002926209548917</v>
+        <v>0.3438722977916484</v>
       </c>
       <c r="H14">
-        <v>0.1667700216480057</v>
+        <v>0.1664917144992302</v>
       </c>
       <c r="I14">
-        <v>0.002636005562524524</v>
+        <v>0.002143137532478967</v>
       </c>
       <c r="J14">
-        <v>0.2441325827614875</v>
+        <v>0.2192910809571984</v>
       </c>
       <c r="K14">
-        <v>0.2030546059491858</v>
+        <v>0.1859682909373497</v>
       </c>
       <c r="L14">
-        <v>0.06610135587807164</v>
+        <v>0.09916271348881178</v>
       </c>
       <c r="M14">
-        <v>2.681740351564997</v>
+        <v>0.04674413975146008</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06507544490766293</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.617083726665157</v>
       </c>
       <c r="P14">
-        <v>0.9456383843803167</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.097785077996107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.9388207123576819</v>
+      </c>
+      <c r="S14">
+        <v>1.060705495497956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4253098917750577</v>
+        <v>0.4360735788903156</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1791489022544113</v>
+        <v>0.1812618822555407</v>
       </c>
       <c r="E15">
-        <v>0.07840843287090493</v>
+        <v>0.07812146133326436</v>
       </c>
       <c r="F15">
-        <v>0.5445237789986948</v>
+        <v>0.5327622261382672</v>
       </c>
       <c r="G15">
-        <v>0.2924083197546992</v>
+        <v>0.3292064050615835</v>
       </c>
       <c r="H15">
-        <v>0.1790294215538495</v>
+        <v>0.178770649318551</v>
       </c>
       <c r="I15">
-        <v>0.00281118429872329</v>
+        <v>0.002308450011413221</v>
       </c>
       <c r="J15">
-        <v>0.2406847602191533</v>
+        <v>0.2228641463740288</v>
       </c>
       <c r="K15">
-        <v>0.2041811004749148</v>
+        <v>0.1868538854470057</v>
       </c>
       <c r="L15">
-        <v>0.0614764626823181</v>
+        <v>0.0992587281374977</v>
       </c>
       <c r="M15">
-        <v>2.639333090262284</v>
+        <v>0.04712219962853537</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06054694722912224</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.577928566054652</v>
       </c>
       <c r="P15">
-        <v>0.9505659389223382</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.073817267562845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.9417336475341784</v>
+      </c>
+      <c r="S15">
+        <v>1.042586685203077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.397181351730211</v>
+        <v>0.4081045752499648</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1718733864391737</v>
+        <v>0.1722579887003377</v>
       </c>
       <c r="E16">
-        <v>0.07694430144382025</v>
+        <v>0.07651702966117213</v>
       </c>
       <c r="F16">
-        <v>0.5312410355752917</v>
+        <v>0.5279924060754055</v>
       </c>
       <c r="G16">
-        <v>0.2839878385018579</v>
+        <v>0.2923664811689051</v>
       </c>
       <c r="H16">
-        <v>0.1651379187633495</v>
+        <v>0.1649629359006468</v>
       </c>
       <c r="I16">
-        <v>0.003199581153206843</v>
+        <v>0.00254778420872892</v>
       </c>
       <c r="J16">
-        <v>0.2396421074711483</v>
+        <v>0.2533332409911537</v>
       </c>
       <c r="K16">
-        <v>0.209417592854602</v>
+        <v>0.1908500635220207</v>
       </c>
       <c r="L16">
-        <v>0.06117163726667485</v>
+        <v>0.09927494334997178</v>
       </c>
       <c r="M16">
-        <v>2.482982550540925</v>
+        <v>0.04921042962756994</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0605133300922116</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.439795570092002</v>
       </c>
       <c r="P16">
-        <v>0.9458854202214724</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.053605190118759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9286677980195037</v>
+      </c>
+      <c r="S16">
+        <v>1.045959382457511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3772698584667467</v>
+        <v>0.387363202532697</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1832739920781279</v>
+        <v>0.1829797723736846</v>
       </c>
       <c r="E17">
-        <v>0.08992321555929905</v>
+        <v>0.0894448720885137</v>
       </c>
       <c r="F17">
-        <v>0.5503835189638338</v>
+        <v>0.5505287214037011</v>
       </c>
       <c r="G17">
-        <v>0.2922939226611376</v>
+        <v>0.2891390732177896</v>
       </c>
       <c r="H17">
-        <v>0.1267976396618593</v>
+        <v>0.1266576053091484</v>
       </c>
       <c r="I17">
-        <v>0.003454656216351104</v>
+        <v>0.002716265241921256</v>
       </c>
       <c r="J17">
-        <v>0.245864920812835</v>
+        <v>0.2740969829724875</v>
       </c>
       <c r="K17">
-        <v>0.2123983029688485</v>
+        <v>0.1931936110424974</v>
       </c>
       <c r="L17">
-        <v>0.0721339208158831</v>
+        <v>0.0993562179916978</v>
       </c>
       <c r="M17">
-        <v>2.423042356145857</v>
+        <v>0.05048161980520005</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07157508569905957</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.388552800524224</v>
       </c>
       <c r="P17">
-        <v>0.9326771265646698</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.08414179371232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9122681881496675</v>
+      </c>
+      <c r="S17">
+        <v>1.085953409127086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3651565627133806</v>
+        <v>0.3729787633050421</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2137777758655233</v>
+        <v>0.2132441089818542</v>
       </c>
       <c r="E18">
-        <v>0.1220103309983251</v>
+        <v>0.1214958913753286</v>
       </c>
       <c r="F18">
-        <v>0.6015056637862841</v>
+        <v>0.6027612851257729</v>
       </c>
       <c r="G18">
-        <v>0.3168224846474956</v>
+        <v>0.3085789105775163</v>
       </c>
       <c r="H18">
-        <v>0.07396433274416836</v>
+        <v>0.07383194858972786</v>
       </c>
       <c r="I18">
-        <v>0.003308480667197244</v>
+        <v>0.002486541699366462</v>
       </c>
       <c r="J18">
-        <v>0.2594116263868784</v>
+        <v>0.294120729967787</v>
       </c>
       <c r="K18">
-        <v>0.2137694106437333</v>
+        <v>0.1943265118181516</v>
       </c>
       <c r="L18">
-        <v>0.1040284192313479</v>
+        <v>0.09942787964789312</v>
       </c>
       <c r="M18">
-        <v>2.434693550714883</v>
+        <v>0.05110244040943002</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.103481475620498</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.406260740553705</v>
       </c>
       <c r="P18">
-        <v>0.9097627854058601</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.164462803568455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.8890935346084063</v>
+      </c>
+      <c r="S18">
+        <v>1.169391878789312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3541990103432937</v>
+        <v>0.3590334143391374</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2607452121942515</v>
+        <v>0.2602198485037945</v>
       </c>
       <c r="E19">
-        <v>0.1752453364613515</v>
+        <v>0.1747035611007348</v>
       </c>
       <c r="F19">
-        <v>0.6761256872069481</v>
+        <v>0.6772219042151235</v>
       </c>
       <c r="G19">
-        <v>0.3526171067566395</v>
+        <v>0.3426100563152232</v>
       </c>
       <c r="H19">
-        <v>0.02935121344216896</v>
+        <v>0.02920383037159269</v>
       </c>
       <c r="I19">
-        <v>0.003423153272016144</v>
+        <v>0.002629513912538961</v>
       </c>
       <c r="J19">
-        <v>0.2776943941144907</v>
+        <v>0.3143552617200811</v>
       </c>
       <c r="K19">
-        <v>0.2141160204668542</v>
+        <v>0.1946492595752161</v>
       </c>
       <c r="L19">
-        <v>0.1655566736022109</v>
+        <v>0.09950409263851157</v>
       </c>
       <c r="M19">
-        <v>2.512120667579183</v>
+        <v>0.05125121942741906</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1649462391681951</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.488329669232684</v>
       </c>
       <c r="P19">
-        <v>0.8850471286722978</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.278638425671346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8655668753377626</v>
+      </c>
+      <c r="S19">
+        <v>1.283225540197407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3578879971319822</v>
+        <v>0.3570929228237674</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3519475661774862</v>
+        <v>0.3523666876773461</v>
       </c>
       <c r="E20">
-        <v>0.2851302582864434</v>
+        <v>0.2846960446327316</v>
       </c>
       <c r="F20">
-        <v>0.8166529859392426</v>
+        <v>0.8133565143145489</v>
       </c>
       <c r="G20">
-        <v>0.4208705085692515</v>
+        <v>0.4191532898301915</v>
       </c>
       <c r="H20">
-        <v>0.005729624610747663</v>
+        <v>0.005495600736622031</v>
       </c>
       <c r="I20">
-        <v>0.003205415481724039</v>
+        <v>0.00256691016353372</v>
       </c>
       <c r="J20">
-        <v>0.3096943120968518</v>
+        <v>0.3339080499579694</v>
       </c>
       <c r="K20">
-        <v>0.2110007525423887</v>
+        <v>0.1920346229686452</v>
       </c>
       <c r="L20">
-        <v>0.3061232962890301</v>
+        <v>0.09905794891741992</v>
       </c>
       <c r="M20">
-        <v>2.756838753346727</v>
+        <v>0.05010479934742834</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3051115137521094</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.735416624748723</v>
       </c>
       <c r="P20">
-        <v>0.8488135499511174</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.490493308255964</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8342367493746039</v>
+      </c>
+      <c r="S20">
+        <v>1.483609295055999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.402517406592267</v>
+        <v>0.4000170741274331</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3972166807254354</v>
+        <v>0.4031814643443568</v>
       </c>
       <c r="E21">
-        <v>0.3249627751361359</v>
+        <v>0.3256058799496202</v>
       </c>
       <c r="F21">
-        <v>0.8904308166424357</v>
+        <v>0.8634593176644927</v>
       </c>
       <c r="G21">
-        <v>0.4599813573683491</v>
+        <v>0.530867866817573</v>
       </c>
       <c r="H21">
-        <v>0.008587994376669961</v>
+        <v>0.008128017555247946</v>
       </c>
       <c r="I21">
-        <v>0.002691609674300821</v>
+        <v>0.002359446309123214</v>
       </c>
       <c r="J21">
-        <v>0.3232680722703662</v>
+        <v>0.2623733252591052</v>
       </c>
       <c r="K21">
-        <v>0.2010136868365175</v>
+        <v>0.1836628543733827</v>
       </c>
       <c r="L21">
-        <v>0.3512678162794458</v>
+        <v>0.09771780446892997</v>
       </c>
       <c r="M21">
-        <v>3.105014704823589</v>
+        <v>0.04673117291317658</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3487886964571487</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>3.045779852315007</v>
       </c>
       <c r="P21">
-        <v>0.8409045513324998</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.602158092809901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8408203566574528</v>
+      </c>
+      <c r="S21">
+        <v>1.532717381697154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4357175268629305</v>
+        <v>0.4322529563218751</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4225448594592933</v>
+        <v>0.4326302592044158</v>
       </c>
       <c r="E22">
-        <v>0.3454604972641491</v>
+        <v>0.3469316593852483</v>
       </c>
       <c r="F22">
-        <v>0.9341645627234811</v>
+        <v>0.8899549421282416</v>
       </c>
       <c r="G22">
-        <v>0.4839768905438717</v>
+        <v>0.6115070623451544</v>
       </c>
       <c r="H22">
-        <v>0.01066687438995735</v>
+        <v>0.01003447802141937</v>
       </c>
       <c r="I22">
-        <v>0.002120275587034648</v>
+        <v>0.001904312656334284</v>
       </c>
       <c r="J22">
-        <v>0.3314500378353102</v>
+        <v>0.219696316079407</v>
       </c>
       <c r="K22">
-        <v>0.1947726588322827</v>
+        <v>0.1784493580813269</v>
       </c>
       <c r="L22">
-        <v>0.3733132613254355</v>
+        <v>0.09723856398380182</v>
       </c>
       <c r="M22">
-        <v>3.320016756384916</v>
+        <v>0.04475243289746267</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3698052252705395</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.232741892037666</v>
       </c>
       <c r="P22">
-        <v>0.8362794772096791</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.670365088100596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.8466566670115441</v>
+      </c>
+      <c r="S22">
+        <v>1.555531493628138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4217755195391533</v>
+        <v>0.4180880019593616</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4088030815985348</v>
+        <v>0.4160808136762739</v>
       </c>
       <c r="E23">
-        <v>0.3344612137422942</v>
+        <v>0.3353575590737279</v>
       </c>
       <c r="F23">
-        <v>0.9116358648343663</v>
+        <v>0.8790639341328728</v>
       </c>
       <c r="G23">
-        <v>0.4718562708601866</v>
+        <v>0.5600622769566144</v>
       </c>
       <c r="H23">
-        <v>0.009534567129847807</v>
+        <v>0.009008581808606322</v>
       </c>
       <c r="I23">
-        <v>0.002093293812570174</v>
+        <v>0.001760103384935263</v>
       </c>
       <c r="J23">
-        <v>0.3274388279383373</v>
+        <v>0.2494446707119806</v>
       </c>
       <c r="K23">
-        <v>0.198145480169384</v>
+        <v>0.1812101079398905</v>
       </c>
       <c r="L23">
-        <v>0.3615783342816741</v>
+        <v>0.09739580522364122</v>
       </c>
       <c r="M23">
-        <v>3.19941398298505</v>
+        <v>0.04586270301422468</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3587504003661337</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3.132701364778086</v>
       </c>
       <c r="P23">
-        <v>0.8369441648236418</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.636161232971801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8406510792686106</v>
+      </c>
+      <c r="S23">
+        <v>1.551937035981439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3621997276113689</v>
+        <v>0.3607233668009684</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3573023099197883</v>
+        <v>0.3577202480151556</v>
       </c>
       <c r="E24">
-        <v>0.2930054546299772</v>
+        <v>0.2925702223300348</v>
       </c>
       <c r="F24">
-        <v>0.8264222869642595</v>
+        <v>0.8231252755870884</v>
       </c>
       <c r="G24">
-        <v>0.4259539802012853</v>
+        <v>0.4235757408111454</v>
       </c>
       <c r="H24">
-        <v>0.005747560303652088</v>
+        <v>0.005511145250125415</v>
       </c>
       <c r="I24">
-        <v>0.002681729718784887</v>
+        <v>0.001952700580487132</v>
       </c>
       <c r="J24">
-        <v>0.3123187901982476</v>
+        <v>0.3372136863115855</v>
       </c>
       <c r="K24">
-        <v>0.2113042146961879</v>
+        <v>0.1922616534678006</v>
       </c>
       <c r="L24">
-        <v>0.3171724459448342</v>
+        <v>0.09912729097018858</v>
       </c>
       <c r="M24">
-        <v>2.753272407531114</v>
+        <v>0.05020739890110879</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3161520254742101</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.733174810792093</v>
       </c>
       <c r="P24">
-        <v>0.8438427179633834</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.506763670039504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8293812910288594</v>
+      </c>
+      <c r="S24">
+        <v>1.499890669239079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2967608717857217</v>
+        <v>0.302284499230737</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3020832340687321</v>
+        <v>0.3017087724699792</v>
       </c>
       <c r="E25">
-        <v>0.2484606327763146</v>
+        <v>0.2480023150370698</v>
       </c>
       <c r="F25">
-        <v>0.7374727673239718</v>
+        <v>0.7381405529696821</v>
       </c>
       <c r="G25">
-        <v>0.3787494024424092</v>
+        <v>0.3695876318007123</v>
       </c>
       <c r="H25">
-        <v>0.00262038146716348</v>
+        <v>0.002509316427811159</v>
       </c>
       <c r="I25">
-        <v>0.003696256523063823</v>
+        <v>0.002473718849040907</v>
       </c>
       <c r="J25">
-        <v>0.2973890309500717</v>
+        <v>0.3309100247048775</v>
       </c>
       <c r="K25">
-        <v>0.2264850891631387</v>
+        <v>0.2050063931383128</v>
       </c>
       <c r="L25">
-        <v>0.2693957221653704</v>
+        <v>0.1026413848813339</v>
       </c>
       <c r="M25">
-        <v>2.273772183277487</v>
+        <v>0.0556856136417534</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2688147389608133</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.248190681999972</v>
       </c>
       <c r="P25">
-        <v>0.8542802680704327</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.374942332131468</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8320733969160798</v>
+      </c>
+      <c r="S25">
+        <v>1.37828674306158</v>
       </c>
     </row>
   </sheetData>
